--- a/results/Moxifloxacin_ATU.xlsx
+++ b/results/Moxifloxacin_ATU.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="85">
   <si>
     <t>mutation</t>
   </si>
@@ -175,9 +175,6 @@
     <t>gyrB_p.Arg446Leu</t>
   </si>
   <si>
-    <t>gyrB_p.Ala504Thr</t>
-  </si>
-  <si>
     <t>gyrA_p.Ala463Ser</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>6576</t>
   </si>
   <si>
-    <t>6749</t>
-  </si>
-  <si>
     <t>8688</t>
   </si>
   <si>
@@ -260,6 +254,24 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>gyrB_p.Ala504Thr</t>
+  </si>
+  <si>
+    <t>6749</t>
+  </si>
+  <si>
+    <t>Rv1129c_p.Leu212Arg</t>
+  </si>
+  <si>
+    <t>Rv2752c_p.Asp44Ala</t>
+  </si>
+  <si>
+    <t>1253900</t>
+  </si>
+  <si>
+    <t>3066061</t>
   </si>
 </sst>
 </file>
@@ -617,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,22 +750,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>3.733676325067247</v>
       </c>
       <c r="F2">
-        <v>3.552755318772898</v>
+        <v>3.555283338074859</v>
       </c>
       <c r="G2">
-        <v>3.928131281422325</v>
+        <v>3.929464773523633</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -848,22 +860,22 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>3.215824410656593</v>
       </c>
       <c r="F3">
-        <v>3.07266076574769</v>
+        <v>3.082192723452149</v>
       </c>
       <c r="G3">
-        <v>3.370324508963634</v>
+        <v>3.379785702265583</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -958,31 +970,31 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>2.308049595634003</v>
       </c>
       <c r="F4">
-        <v>2.218608967054373</v>
+        <v>2.219913180698416</v>
       </c>
       <c r="G4">
-        <v>2.417739195557002</v>
+        <v>2.41247930464418</v>
       </c>
       <c r="H4">
-        <v>1.038671625919354E-306</v>
+        <v>1.207636838321269E-302</v>
       </c>
       <c r="I4">
-        <v>2.373364665225724E-304</v>
+        <v>2.759450175564099E-300</v>
       </c>
       <c r="J4">
-        <v>4.746729330451448E-304</v>
+        <v>5.518900351128199E-300</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1068,31 +1080,31 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>2.286240516246197</v>
       </c>
       <c r="F5">
-        <v>2.186156696901858</v>
+        <v>2.190843141811269</v>
       </c>
       <c r="G5">
-        <v>2.39993902711509</v>
+        <v>2.390224595578195</v>
       </c>
       <c r="H5">
-        <v>2.992937886781915E-270</v>
+        <v>2.09822730389989E-278</v>
       </c>
       <c r="I5">
-        <v>6.838863071296677E-268</v>
+        <v>4.79444938941125E-276</v>
       </c>
       <c r="J5">
-        <v>1.367772614259335E-267</v>
+        <v>9.5888987788225E-276</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1178,31 +1190,31 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1.891455214378851</v>
       </c>
       <c r="F6">
-        <v>1.821808912254433</v>
+        <v>1.817807262722901</v>
       </c>
       <c r="G6">
-        <v>1.969412492835305</v>
+        <v>1.969919322455074</v>
       </c>
       <c r="H6">
-        <v>3.302035296404892E-207</v>
+        <v>2.54758591919505E-208</v>
       </c>
       <c r="I6">
-        <v>5.030100434856786E-205</v>
+        <v>3.880822550240459E-206</v>
       </c>
       <c r="J6">
-        <v>1.509030130457036E-204</v>
+        <v>1.164246765072138E-205</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1288,31 +1300,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>1.742798785823047</v>
       </c>
       <c r="F7">
-        <v>1.675576552776288</v>
+        <v>1.672412991687868</v>
       </c>
       <c r="G7">
-        <v>1.825167501197156</v>
+        <v>1.823398207782212</v>
       </c>
       <c r="H7">
-        <v>9.010465730201978E-143</v>
+        <v>7.548002371792252E-150</v>
       </c>
       <c r="I7">
-        <v>1.372594279567435E-140</v>
+        <v>1.14981236130302E-147</v>
       </c>
       <c r="J7">
-        <v>4.117782838702304E-140</v>
+        <v>3.44943708390906E-147</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1398,31 +1410,31 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1.551968160439043</v>
       </c>
       <c r="F8">
-        <v>1.488575273906323</v>
+        <v>1.495938574447647</v>
       </c>
       <c r="G8">
-        <v>1.618832345413385</v>
+        <v>1.62330218742618</v>
       </c>
       <c r="H8">
-        <v>5.277025175548947E-89</v>
+        <v>5.11125131094846E-93</v>
       </c>
       <c r="I8">
-        <v>3.445143578894098E-87</v>
+        <v>3.893069748505744E-91</v>
       </c>
       <c r="J8">
-        <v>2.411600505225869E-86</v>
+        <v>2.335841849103446E-90</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1508,31 +1520,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1.540508553185717</v>
       </c>
       <c r="F9">
-        <v>1.481897588899821</v>
+        <v>1.48415053762092</v>
       </c>
       <c r="G9">
-        <v>1.601831701372944</v>
+        <v>1.599102973599901</v>
       </c>
       <c r="H9">
-        <v>6.008484072203164E-102</v>
+        <v>2.188102625847936E-109</v>
       </c>
       <c r="I9">
-        <v>5.491754441993692E-100</v>
+        <v>2.499907250031266E-107</v>
       </c>
       <c r="J9">
-        <v>2.745877220996846E-99</v>
+        <v>9.999629000125064E-107</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1618,31 +1630,31 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>1.530650258584678</v>
       </c>
       <c r="F10">
-        <v>1.469969485416289</v>
+        <v>1.476913086246237</v>
       </c>
       <c r="G10">
-        <v>1.601742132278991</v>
+        <v>1.60006117692593</v>
       </c>
       <c r="H10">
-        <v>2.948024882279215E-85</v>
+        <v>4.661982947513829E-90</v>
       </c>
       <c r="I10">
-        <v>2.694494742403203E-83</v>
+        <v>4.261052414027639E-88</v>
       </c>
       <c r="J10">
-        <v>1.347247371201601E-82</v>
+        <v>2.130526207013819E-87</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1728,31 +1740,31 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>1.499781205640729</v>
       </c>
       <c r="F11">
-        <v>1.446974960129141</v>
+        <v>1.445762585218218</v>
       </c>
       <c r="G11">
-        <v>1.559001579292726</v>
+        <v>1.567126587365272</v>
       </c>
       <c r="H11">
-        <v>4.566976893316842E-92</v>
+        <v>5.802934141768933E-90</v>
       </c>
       <c r="I11">
-        <v>3.478514067076328E-90</v>
+        <v>3.788487003983432E-88</v>
       </c>
       <c r="J11">
-        <v>2.087108440245797E-89</v>
+        <v>2.651940902788403E-87</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1838,31 +1850,31 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>1.466616976720334</v>
       </c>
       <c r="F12">
-        <v>1.410422317135081</v>
+        <v>1.408813437962705</v>
       </c>
       <c r="G12">
-        <v>1.528436551027474</v>
+        <v>1.530290507635494</v>
       </c>
       <c r="H12">
-        <v>6.030883305672471E-77</v>
+        <v>2.874207910094084E-75</v>
       </c>
       <c r="I12">
-        <v>4.593522784487199E-75</v>
+        <v>2.189188358188327E-73</v>
       </c>
       <c r="J12">
-        <v>2.756113670692319E-74</v>
+        <v>1.313513014912996E-72</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1948,31 +1960,31 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>1.445750280084549</v>
       </c>
       <c r="F13">
-        <v>1.395225728363068</v>
+        <v>1.397636308955367</v>
       </c>
       <c r="G13">
-        <v>1.507510590840569</v>
+        <v>1.512343906972582</v>
       </c>
       <c r="H13">
-        <v>9.436161370779644E-77</v>
+        <v>3.969625226020213E-71</v>
       </c>
       <c r="I13">
-        <v>6.160465352066138E-75</v>
+        <v>2.591598183273196E-69</v>
       </c>
       <c r="J13">
-        <v>4.312325746446297E-74</v>
+        <v>1.814118728291237E-68</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2058,31 +2070,31 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1.368079886685401</v>
       </c>
       <c r="F14">
-        <v>1.323096844077103</v>
+        <v>1.325850747898754</v>
       </c>
       <c r="G14">
-        <v>1.424193527209195</v>
+        <v>1.423069683802416</v>
       </c>
       <c r="H14">
-        <v>3.918794842944144E-58</v>
+        <v>1.331404064813173E-64</v>
       </c>
       <c r="I14">
-        <v>2.238611554031842E-56</v>
+        <v>7.605645720245251E-63</v>
       </c>
       <c r="J14">
-        <v>1.790889243225474E-55</v>
+        <v>6.084516576196201E-62</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2168,31 +2180,31 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>1.35187254985455</v>
       </c>
       <c r="F15">
-        <v>1.307504312062819</v>
+        <v>1.31277064263703</v>
       </c>
       <c r="G15">
-        <v>1.407440840703956</v>
+        <v>1.406411890077603</v>
       </c>
       <c r="H15">
-        <v>1.334047461933986E-57</v>
+        <v>1.431596757228182E-66</v>
       </c>
       <c r="I15">
-        <v>7.620746126297891E-56</v>
+        <v>8.177996475665988E-65</v>
       </c>
       <c r="J15">
-        <v>6.096596901038314E-55</v>
+        <v>6.54239718053279E-64</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2278,31 +2290,31 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>1.242772460033006</v>
       </c>
       <c r="F16">
-        <v>1.204659702823245</v>
+        <v>1.20548725496356</v>
       </c>
       <c r="G16">
-        <v>1.295154060975554</v>
+        <v>1.294665249842444</v>
       </c>
       <c r="H16">
-        <v>9.877558115515681E-32</v>
+        <v>7.414650149129299E-33</v>
       </c>
       <c r="I16">
-        <v>5.015604509767407E-30</v>
+        <v>3.764994575724544E-31</v>
       </c>
       <c r="J16">
-        <v>4.514044058790666E-29</v>
+        <v>3.38849511815209E-30</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2388,31 +2400,31 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>1.237989022588344</v>
       </c>
       <c r="F17">
-        <v>1.198309561774153</v>
+        <v>1.195283107267293</v>
       </c>
       <c r="G17">
-        <v>1.278908099541374</v>
+        <v>1.278716388644835</v>
       </c>
       <c r="H17">
-        <v>9.656655311306536E-32</v>
+        <v>5.808821879268424E-32</v>
       </c>
       <c r="I17">
-        <v>4.903434974741208E-30</v>
+        <v>2.949590665361856E-30</v>
       </c>
       <c r="J17">
-        <v>4.413091477267087E-29</v>
+        <v>2.65463159882567E-29</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2498,31 +2510,31 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>1.213846624260725</v>
       </c>
       <c r="F18">
-        <v>1.169317864160924</v>
+        <v>1.171558078133419</v>
       </c>
       <c r="G18">
-        <v>1.26321991148186</v>
+        <v>1.263653312763277</v>
       </c>
       <c r="H18">
-        <v>1.877752889239153E-23</v>
+        <v>1.407369773421499E-23</v>
       </c>
       <c r="I18">
-        <v>7.801209730748118E-22</v>
+        <v>5.846981695032953E-22</v>
       </c>
       <c r="J18">
-        <v>8.581330703822928E-21</v>
+        <v>6.431679864536249E-21</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2608,31 +2620,31 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>1.212907250803182</v>
       </c>
       <c r="F19">
-        <v>1.166394615493598</v>
+        <v>1.16813442409164</v>
       </c>
       <c r="G19">
-        <v>1.263692372984625</v>
+        <v>1.264503541392933</v>
       </c>
       <c r="H19">
-        <v>9.111768857396131E-21</v>
+        <v>2.602253187346818E-20</v>
       </c>
       <c r="I19">
-        <v>4.164078367830034E-19</v>
+        <v>1.081117915106815E-18</v>
       </c>
       <c r="J19">
-        <v>4.164078367830033E-18</v>
+        <v>1.189229706617496E-17</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2718,31 +2730,31 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>1.180784143476595</v>
       </c>
       <c r="F20">
-        <v>1.134138205415536</v>
+        <v>1.135403352485599</v>
       </c>
       <c r="G20">
-        <v>1.237717604448722</v>
+        <v>1.237312292626247</v>
       </c>
       <c r="H20">
-        <v>2.804485806610976E-14</v>
+        <v>1.921288495262072E-14</v>
       </c>
       <c r="I20">
-        <v>9.154642954437257E-13</v>
+        <v>5.853525615565111E-13</v>
       </c>
       <c r="J20">
-        <v>1.281650013621216E-11</v>
+        <v>8.780288423347667E-12</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2828,31 +2840,31 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1.141610977940497</v>
       </c>
       <c r="F21">
-        <v>1.036434940203498</v>
+        <v>1.033333407383295</v>
       </c>
       <c r="G21">
-        <v>1.191658372738309</v>
+        <v>1.192483351509853</v>
       </c>
       <c r="H21">
-        <v>1.242447353059124E-05</v>
+        <v>3.440356295377882E-05</v>
       </c>
       <c r="I21">
-        <v>0.0001669995412788</v>
+        <v>0.0003930607067469</v>
       </c>
       <c r="J21">
-        <v>0.0056779844034801</v>
+        <v>0.0157224282698769</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2938,31 +2950,31 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>1.138893463222526</v>
       </c>
       <c r="F22">
-        <v>1.10139822236835</v>
+        <v>1.097623818977582</v>
       </c>
       <c r="G22">
-        <v>1.182633899518864</v>
+        <v>1.18763327726346</v>
       </c>
       <c r="H22">
-        <v>2.354590078821455E-13</v>
+        <v>1.761565544973577E-11</v>
       </c>
       <c r="I22">
-        <v>7.686054757295748E-12</v>
+        <v>5.750253243235173E-10</v>
       </c>
       <c r="J22">
-        <v>1.076047666021405E-10</v>
+        <v>8.050354540529246E-09</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3048,31 +3060,31 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>1.135665863839182</v>
       </c>
       <c r="F23">
-        <v>1.08107691727455</v>
+        <v>1.079582365687972</v>
       </c>
       <c r="G23">
-        <v>1.183233647673421</v>
+        <v>1.187218243283508</v>
       </c>
       <c r="H23">
-        <v>4.600842391135284E-08</v>
+        <v>3.033851278168559E-08</v>
       </c>
       <c r="I23">
-        <v>1.106623669867802E-06</v>
+        <v>7.297210705910692E-07</v>
       </c>
       <c r="J23">
-        <v>2.102584972748825E-05</v>
+        <v>1.386470034123031E-05</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3158,31 +3170,31 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>1.122009193291418</v>
       </c>
       <c r="F24">
-        <v>1.0827414545183</v>
+        <v>1.082754400004826</v>
       </c>
       <c r="G24">
-        <v>1.170939307595012</v>
+        <v>1.171049912349428</v>
       </c>
       <c r="H24">
-        <v>2.830066244397689E-09</v>
+        <v>2.165787420892079E-09</v>
       </c>
       <c r="I24">
-        <v>6.158763208046401E-08</v>
+        <v>5.209288691303581E-08</v>
       </c>
       <c r="J24">
-        <v>1.293340273689744E-06</v>
+        <v>9.897648513476802E-07</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3268,31 +3280,31 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>1.11815983474434</v>
       </c>
       <c r="F25">
-        <v>1.080195731127445</v>
+        <v>1.075197815500822</v>
       </c>
       <c r="G25">
-        <v>1.167066424183795</v>
+        <v>1.162962077402156</v>
       </c>
       <c r="H25">
-        <v>2.718968364658213E-08</v>
+        <v>1.257452295047724E-07</v>
       </c>
       <c r="I25">
-        <v>7.309226721463549E-07</v>
+        <v>2.736455708746713E-06</v>
       </c>
       <c r="J25">
-        <v>1.242568542648803E-05</v>
+        <v>5.746556988368098E-05</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3378,31 +3390,31 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>1.117644273495658</v>
       </c>
       <c r="F26">
-        <v>1.067928285349194</v>
+        <v>1.06533057688785</v>
       </c>
       <c r="G26">
-        <v>1.164501862134465</v>
+        <v>1.170732928866275</v>
       </c>
       <c r="H26">
-        <v>3.549736583713862E-07</v>
+        <v>1.851624714880774E-06</v>
       </c>
       <c r="I26">
-        <v>5.407432062524117E-06</v>
+        <v>2.564219680910648E-05</v>
       </c>
       <c r="J26">
-        <v>0.0001622229618757</v>
+        <v>0.0008461924947005</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3488,31 +3500,31 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>1.111015690062691</v>
       </c>
       <c r="F27">
-        <v>1.046809774168616</v>
+        <v>1.048445200950444</v>
       </c>
       <c r="G27">
-        <v>1.160443324708809</v>
+        <v>1.158731324800645</v>
       </c>
       <c r="H27">
-        <v>4.314926443155294E-05</v>
+        <v>6.291687983171302E-05</v>
       </c>
       <c r="I27">
-        <v>0.0004695050915528</v>
+        <v>0.0006389558685131</v>
       </c>
       <c r="J27">
-        <v>0.0197192138452196</v>
+        <v>0.0287530140830928</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3598,31 +3610,31 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>1.109300446722153</v>
       </c>
       <c r="F28">
-        <v>1.025407290099693</v>
+        <v>1.024951375605486</v>
       </c>
       <c r="G28">
-        <v>1.160795920926847</v>
+        <v>1.157902246327651</v>
       </c>
       <c r="H28">
-        <v>0.0002601531675288</v>
+        <v>0.0001813132283546</v>
       </c>
       <c r="I28">
-        <v>0.0024768749491813</v>
+        <v>0.0017629818161289</v>
       </c>
       <c r="J28">
-        <v>0.1188899975607029</v>
+        <v>0.08286014535806149</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3708,31 +3720,31 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>1.108764896894138</v>
       </c>
       <c r="F29">
-        <v>1.019579162087498</v>
+        <v>1.020802371762247</v>
       </c>
       <c r="G29">
-        <v>1.12885121761502</v>
+        <v>1.129934958249803</v>
       </c>
       <c r="H29">
-        <v>4.392619824526338E-05</v>
+        <v>3.392421125094735E-05</v>
       </c>
       <c r="I29">
-        <v>0.0004562334681383</v>
+        <v>0.0003605433614344</v>
       </c>
       <c r="J29">
-        <v>0.0200742725980853</v>
+        <v>0.0155033645416829</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3818,31 +3830,31 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>1.098126575591772</v>
       </c>
       <c r="F30">
-        <v>1.055039196323977</v>
+        <v>1.056022883940186</v>
       </c>
       <c r="G30">
-        <v>1.150530275841772</v>
+        <v>1.14790808901469</v>
       </c>
       <c r="H30">
-        <v>1.050105959123502E-05</v>
+        <v>2.119413283848674E-05</v>
       </c>
       <c r="I30">
-        <v>0.0001230508777742</v>
+        <v>0.0002362370416387</v>
       </c>
       <c r="J30">
-        <v>0.0047989842331944</v>
+        <v>0.009685718707188399</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3928,251 +3940,251 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31">
-        <v>1.097274805398675</v>
+        <v>1.097208010577162</v>
       </c>
       <c r="F31">
-        <v>1.02395667107263</v>
+        <v>1.052680909512154</v>
       </c>
       <c r="G31">
-        <v>1.128280371596351</v>
+        <v>1.138752495859794</v>
       </c>
       <c r="H31">
-        <v>0.0009610999982017</v>
+        <v>4.108347919351497E-06</v>
       </c>
       <c r="I31">
-        <v>0.0069717888758444</v>
+        <v>6.474189652219427E-05</v>
       </c>
       <c r="J31">
-        <v>0.4392226991782008</v>
+        <v>0.0018775149991436</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="M31">
         <v>23306</v>
       </c>
       <c r="N31">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="P31">
-        <v>19207</v>
+        <v>19015</v>
       </c>
       <c r="Q31">
-        <v>4087</v>
+        <v>4013</v>
       </c>
       <c r="R31">
-        <v>0.8333333333333334</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="S31">
-        <v>0.8245470936721903</v>
+        <v>0.8257338891783915</v>
       </c>
       <c r="T31">
-        <v>0.0024408103490358</v>
+        <v>0.0205028069319013</v>
       </c>
       <c r="U31">
-        <v>0.9998958821385808</v>
+        <v>0.9899005674423448</v>
       </c>
       <c r="V31">
-        <v>23.44276299730465</v>
+        <v>2.030094939973689</v>
       </c>
       <c r="W31">
-        <v>0.9976630641956252</v>
+        <v>0.9894904854927744</v>
       </c>
       <c r="X31">
-        <v>0.5190777942769059</v>
+        <v>0.2509688357584906</v>
       </c>
       <c r="Y31">
-        <v>0.958613275997822</v>
+        <v>0.358787436256921</v>
       </c>
       <c r="Z31">
-        <v>0.8196089989591487</v>
+        <v>0.8207799637885783</v>
       </c>
       <c r="AA31">
-        <v>0.8293781515296438</v>
+        <v>0.8305791454589891</v>
       </c>
       <c r="AB31">
-        <v>0.0013261336552317</v>
+        <v>0.0165904398769455</v>
       </c>
       <c r="AC31">
-        <v>0.0044882136180963</v>
+        <v>0.0253140414664212</v>
       </c>
       <c r="AD31">
-        <v>0.9996203897575818</v>
+        <v>0.9883852965544152</v>
       </c>
       <c r="AE31">
-        <v>0.9999714487121196</v>
+        <v>0.9912199099979546</v>
       </c>
       <c r="AF31">
-        <v>5.138062867100002</v>
+        <v>1.575081375280271</v>
       </c>
       <c r="AG31">
-        <v>106.9592083948124</v>
+        <v>2.61655399523306</v>
       </c>
       <c r="AH31">
-        <v>0.9961461849835054</v>
+        <v>0.9848951192226242</v>
       </c>
       <c r="AI31">
-        <v>0.999182253231924</v>
+        <v>0.9941072930217396</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32">
-        <v>1.097208010577162</v>
+        <v>1.095636692101154</v>
       </c>
       <c r="F32">
-        <v>1.049380291168983</v>
+        <v>1.01579833839835</v>
       </c>
       <c r="G32">
-        <v>1.140373065218527</v>
+        <v>1.140255071572115</v>
       </c>
       <c r="H32">
-        <v>3.509198790905818E-06</v>
+        <v>0.0003518552584697</v>
       </c>
       <c r="I32">
-        <v>5.939643879422069E-05</v>
+        <v>0.0027723767779424</v>
       </c>
       <c r="J32">
-        <v>0.0016037038474439</v>
+        <v>0.1607978531206628</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="M32">
         <v>23306</v>
       </c>
       <c r="N32">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="O32">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>19015</v>
+        <v>19205</v>
       </c>
       <c r="Q32">
-        <v>4013</v>
+        <v>4085</v>
       </c>
       <c r="R32">
-        <v>0.302158273381295</v>
+        <v>0.75</v>
       </c>
       <c r="S32">
-        <v>0.8257338891783915</v>
+        <v>0.8246028338342636</v>
       </c>
       <c r="T32">
-        <v>0.0205028069319013</v>
+        <v>0.002928972418843</v>
       </c>
       <c r="U32">
-        <v>0.9899005674423448</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V32">
-        <v>2.030094939973689</v>
+        <v>14.06565779839029</v>
       </c>
       <c r="W32">
-        <v>0.9894904854927744</v>
+        <v>0.9972786966314212</v>
       </c>
       <c r="X32">
-        <v>0.2509688357584906</v>
+        <v>0.485129064987007</v>
       </c>
       <c r="Y32">
-        <v>0.358787436256921</v>
+        <v>0.9052291176155008</v>
       </c>
       <c r="Z32">
-        <v>0.8207799637885783</v>
+        <v>0.8196649120390536</v>
       </c>
       <c r="AA32">
-        <v>0.8305791454589891</v>
+        <v>0.8294336820052186</v>
       </c>
       <c r="AB32">
-        <v>0.0165904398769455</v>
+        <v>0.0016760531941873</v>
       </c>
       <c r="AC32">
-        <v>0.0253140414664212</v>
+        <v>0.0051137031080607</v>
       </c>
       <c r="AD32">
-        <v>0.9883852965544152</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE32">
-        <v>0.9912199099979546</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF32">
-        <v>1.575081375280271</v>
+        <v>4.538490654515425</v>
       </c>
       <c r="AG32">
-        <v>2.61655399523306</v>
+        <v>43.59218611689337</v>
       </c>
       <c r="AH32">
-        <v>0.9848951192226242</v>
+        <v>0.9956124283895768</v>
       </c>
       <c r="AI32">
-        <v>0.9941072930217396</v>
+        <v>0.9989477535586764</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>1.095636692101154</v>
+        <v>1.08984917396415</v>
       </c>
       <c r="F33">
-        <v>1.025176399344871</v>
+        <v>1.0288940793535</v>
       </c>
       <c r="G33">
-        <v>1.141899343051222</v>
+        <v>1.143850135750165</v>
       </c>
       <c r="H33">
-        <v>0.0002373958105616</v>
+        <v>0.0005583828799091</v>
       </c>
       <c r="I33">
-        <v>0.0020469789703147</v>
+        <v>0.004325101290144</v>
       </c>
       <c r="J33">
-        <v>0.1084898854266821</v>
+        <v>0.2551809761185</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4184,70 +4196,70 @@
         <v>23306</v>
       </c>
       <c r="N33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>19205</v>
+        <v>19201</v>
       </c>
       <c r="Q33">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="R33">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S33">
-        <v>0.8246028338342636</v>
+        <v>0.8244310863031344</v>
       </c>
       <c r="T33">
-        <v>0.002928972418843</v>
+        <v>0.0019526482792287</v>
       </c>
       <c r="U33">
-        <v>0.9997917642771618</v>
+        <v>0.9995835285543236</v>
       </c>
       <c r="V33">
-        <v>14.06565779839029</v>
+        <v>4.68855259946343</v>
       </c>
       <c r="W33">
-        <v>0.9972786966314212</v>
+        <v>0.9984631831261026</v>
       </c>
       <c r="X33">
-        <v>0.485129064987007</v>
+        <v>0.2658613472774175</v>
       </c>
       <c r="Y33">
-        <v>0.9052291176155008</v>
+        <v>0.7341386527225824</v>
       </c>
       <c r="Z33">
-        <v>0.8196649120390536</v>
+        <v>0.8194913115130774</v>
       </c>
       <c r="AA33">
-        <v>0.8294336820052186</v>
+        <v>0.8292638441216477</v>
       </c>
       <c r="AB33">
-        <v>0.0016760531941873</v>
+        <v>0.0009895847529036001</v>
       </c>
       <c r="AC33">
-        <v>0.0051137031080607</v>
+        <v>0.0038493534915045</v>
       </c>
       <c r="AD33">
-        <v>0.9994646215882148</v>
+        <v>0.9991782985407024</v>
       </c>
       <c r="AE33">
-        <v>0.9999190227990148</v>
+        <v>0.9997889576815828</v>
       </c>
       <c r="AF33">
-        <v>4.538490654515425</v>
+        <v>1.76062992227045</v>
       </c>
       <c r="AG33">
-        <v>43.59218611689337</v>
+        <v>12.48560256751024</v>
       </c>
       <c r="AH33">
-        <v>0.9956124283895768</v>
+        <v>0.997081364548848</v>
       </c>
       <c r="AI33">
-        <v>0.9989477535586764</v>
+        <v>0.9998469167151592</v>
       </c>
       <c r="AJ33">
         <v>1</v>
@@ -4258,109 +4270,106 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34">
-        <v>1.08984917396415</v>
+        <v>1.047889473688481</v>
       </c>
       <c r="F34">
-        <v>1.034711663997639</v>
+        <v>1.000019585259958</v>
       </c>
       <c r="G34">
-        <v>1.139905254092672</v>
+        <v>1.061002161813839</v>
       </c>
       <c r="H34">
-        <v>0.0004629833745717</v>
+        <v>0.0001816448259306</v>
       </c>
       <c r="I34">
-        <v>0.0036479896927463</v>
+        <v>0.0017294101135481</v>
       </c>
       <c r="J34">
-        <v>0.2115834021792906</v>
+        <v>0.0830116854503089</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M34">
         <v>23306</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>19201</v>
+        <v>19209</v>
       </c>
       <c r="Q34">
-        <v>4089</v>
+        <v>4091</v>
       </c>
       <c r="R34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0.8244310863031344</v>
+        <v>0.8244206008583691</v>
       </c>
       <c r="T34">
-        <v>0.0019526482792287</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U34">
-        <v>0.9995835285543236</v>
-      </c>
-      <c r="V34">
-        <v>4.68855259946343</v>
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>78</v>
       </c>
       <c r="W34">
-        <v>0.9984631831261026</v>
+        <v>0.9985355137905784</v>
       </c>
       <c r="X34">
-        <v>0.2658613472774175</v>
+        <v>0.5005264873047524</v>
       </c>
       <c r="Y34">
-        <v>0.7341386527225824</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0.8194913115130774</v>
+        <v>0.8194817847126817</v>
       </c>
       <c r="AA34">
-        <v>0.8292638441216477</v>
+        <v>0.8292524494169916</v>
       </c>
       <c r="AB34">
-        <v>0.0009895847529036001</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC34">
-        <v>0.0038493534915045</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD34">
-        <v>0.9991782985407024</v>
+        <v>0.999800032552174</v>
       </c>
       <c r="AE34">
-        <v>0.9997889576815828</v>
-      </c>
-      <c r="AF34">
-        <v>1.76062992227045</v>
-      </c>
-      <c r="AG34">
-        <v>12.48560256751024</v>
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>78</v>
       </c>
       <c r="AH34">
-        <v>0.997081364548848</v>
+        <v>0.9973651862219296</v>
       </c>
       <c r="AI34">
-        <v>0.9998469167151592</v>
+        <v>0.9997072146441954</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4368,31 +4377,31 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>1.047889473688481</v>
+        <v>1.047846941587993</v>
       </c>
       <c r="F35">
-        <v>1.000016937227923</v>
+        <v>1.000010784416761</v>
       </c>
       <c r="G35">
-        <v>1.061322526748113</v>
+        <v>1.059980101512924</v>
       </c>
       <c r="H35">
-        <v>0.0002632318276785</v>
+        <v>0.0001794207375905</v>
       </c>
       <c r="I35">
-        <v>0.0024550396989607</v>
+        <v>0.0017825060234535</v>
       </c>
       <c r="J35">
-        <v>0.1202969452490764</v>
+        <v>0.0819952770788646</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4428,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W35">
         <v>0.9985355137905784</v>
@@ -4458,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="AG35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH35">
         <v>0.9973651862219296</v>
@@ -4472,34 +4481,34 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>1.047846941587993</v>
+        <v>1.041812399819348</v>
       </c>
       <c r="F36">
-        <v>1.000015697054128</v>
+        <v>1.000031348249906</v>
       </c>
       <c r="G36">
-        <v>1.060450990210974</v>
+        <v>1.055223978706949</v>
       </c>
       <c r="H36">
-        <v>0.0001501551412025</v>
+        <v>0.0003383459638948</v>
       </c>
       <c r="I36">
-        <v>0.0014917586854253</v>
+        <v>0.0028113473727264</v>
       </c>
       <c r="J36">
-        <v>0.06862089952956681</v>
+        <v>0.1546241054999572</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4535,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W36">
         <v>0.9985355137905784</v>
@@ -4565,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="AG36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH36">
         <v>0.9973651862219296</v>
@@ -4574,7 +4583,7 @@
         <v>0.9997072146441954</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4582,31 +4591,31 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37">
-        <v>1.041812399819348</v>
+        <v>1.037429002618232</v>
       </c>
       <c r="F37">
-        <v>1.00003113008371</v>
+        <v>1.000025542699016</v>
       </c>
       <c r="G37">
-        <v>1.054374799483791</v>
+        <v>1.048512519146225</v>
       </c>
       <c r="H37">
-        <v>0.0004036873817013</v>
+        <v>0.0003458233208105</v>
       </c>
       <c r="I37">
-        <v>0.0032365812883771</v>
+        <v>0.0027726536422878</v>
       </c>
       <c r="J37">
-        <v>0.1844851334374957</v>
+        <v>0.1580412576104101</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4642,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W37">
         <v>0.9985355137905784</v>
@@ -4672,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AG37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH37">
         <v>0.9973651862219296</v>
@@ -4681,113 +4690,6 @@
         <v>0.9997072146441954</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38">
-        <v>1.037429002618232</v>
-      </c>
-      <c r="F38">
-        <v>1.000027529622607</v>
-      </c>
-      <c r="G38">
-        <v>1.048451890115432</v>
-      </c>
-      <c r="H38">
-        <v>9.062112731034636E-05</v>
-      </c>
-      <c r="I38">
-        <v>0.0008627886496005</v>
-      </c>
-      <c r="J38">
-        <v>0.0414138551808282</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>6</v>
-      </c>
-      <c r="M38">
-        <v>23306</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>19209</v>
-      </c>
-      <c r="Q38">
-        <v>4091</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38">
-        <v>0.8244206008583691</v>
-      </c>
-      <c r="T38">
-        <v>0.0014644862094215</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
-        <v>80</v>
-      </c>
-      <c r="W38">
-        <v>0.9985355137905784</v>
-      </c>
-      <c r="X38">
-        <v>0.5005264873047524</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>0.8194817847126817</v>
-      </c>
-      <c r="AA38">
-        <v>0.8292524494169916</v>
-      </c>
-      <c r="AB38">
-        <v>0.0006712072339467</v>
-      </c>
-      <c r="AC38">
-        <v>0.0031923219815414</v>
-      </c>
-      <c r="AD38">
-        <v>0.999800032552174</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH38">
-        <v>0.9973651862219296</v>
-      </c>
-      <c r="AI38">
-        <v>0.9997072146441954</v>
-      </c>
-      <c r="AJ38">
         <v>1</v>
       </c>
     </row>
@@ -4919,22 +4821,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>3.733674141082658</v>
       </c>
       <c r="F2">
-        <v>3.557429719933523</v>
+        <v>3.566631371653728</v>
       </c>
       <c r="G2">
-        <v>3.953861777665648</v>
+        <v>3.928574624333168</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5029,22 +4931,22 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>3.215824410656593</v>
+        <v>3.215822592715037</v>
       </c>
       <c r="F3">
-        <v>3.07266076574769</v>
+        <v>3.083708875568368</v>
       </c>
       <c r="G3">
-        <v>3.370324508963634</v>
+        <v>3.372486942469332</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5139,31 +5041,31 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>2.308049595634003</v>
+        <v>2.30804877749821</v>
       </c>
       <c r="F4">
-        <v>2.218608967054373</v>
+        <v>2.223260600366205</v>
       </c>
       <c r="G4">
-        <v>2.417739195557002</v>
+        <v>2.410111790460751</v>
       </c>
       <c r="H4">
-        <v>1.038671625919354E-306</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.373364665225724E-304</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.746729330451448E-304</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5249,31 +5151,31 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>2.286239611372218</v>
       </c>
       <c r="F5">
-        <v>2.191380325476426</v>
+        <v>2.191088346415396</v>
       </c>
       <c r="G5">
-        <v>2.404894858104332</v>
+        <v>2.392518240120525</v>
       </c>
       <c r="H5">
-        <v>1.310316817569595E-259</v>
+        <v>6.396134634278623E-272</v>
       </c>
       <c r="I5">
-        <v>3.000625512234372E-257</v>
+        <v>1.464714831249805E-269</v>
       </c>
       <c r="J5">
-        <v>6.001251024468744E-257</v>
+        <v>2.929429662499609E-269</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5359,31 +5261,31 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1.891454869251523</v>
       </c>
       <c r="F6">
-        <v>1.821335853010506</v>
+        <v>1.818926686016268</v>
       </c>
       <c r="G6">
-        <v>1.972687469800946</v>
+        <v>1.968659958440144</v>
       </c>
       <c r="H6">
-        <v>4.979561542349538E-199</v>
+        <v>1.232660874219247E-202</v>
       </c>
       <c r="I6">
-        <v>7.602130621320297E-197</v>
+        <v>1.881862267974717E-200</v>
       </c>
       <c r="J6">
-        <v>2.280639186396088E-196</v>
+        <v>5.645586803924153E-200</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5469,31 +5371,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>1.742798785823047</v>
+        <v>1.742798475115759</v>
       </c>
       <c r="F7">
-        <v>1.675576552776288</v>
+        <v>1.676521026750632</v>
       </c>
       <c r="G7">
-        <v>1.825167501197156</v>
+        <v>1.822617804960686</v>
       </c>
       <c r="H7">
-        <v>9.010465730201978E-143</v>
+        <v>6.148926496977679E-145</v>
       </c>
       <c r="I7">
-        <v>1.372594279567435E-140</v>
+        <v>1.408104167807889E-142</v>
       </c>
       <c r="J7">
-        <v>4.117782838702304E-140</v>
+        <v>2.816208335615777E-142</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5579,31 +5481,31 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1.551967361359736</v>
       </c>
       <c r="F8">
-        <v>1.488099491618976</v>
+        <v>1.49231317124073</v>
       </c>
       <c r="G8">
-        <v>1.614982987698412</v>
+        <v>1.620582683291783</v>
       </c>
       <c r="H8">
-        <v>8.174691176975989E-94</v>
+        <v>1.090417182875868E-96</v>
       </c>
       <c r="I8">
-        <v>6.240014265091671E-92</v>
+        <v>8.323517829285789E-95</v>
       </c>
       <c r="J8">
-        <v>3.744008559055002E-91</v>
+        <v>4.994110697571473E-94</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5689,31 +5591,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1.540508448513965</v>
       </c>
       <c r="F9">
-        <v>1.486253481582638</v>
+        <v>1.481638462330342</v>
       </c>
       <c r="G9">
-        <v>1.606986737233421</v>
+        <v>1.606115442771122</v>
       </c>
       <c r="H9">
-        <v>1.709225578702278E-103</v>
+        <v>8.814140116770046E-99</v>
       </c>
       <c r="I9">
-        <v>1.565650630091286E-101</v>
+        <v>8.073752346961363E-97</v>
       </c>
       <c r="J9">
-        <v>7.828253150456431E-101</v>
+        <v>4.036876173480682E-96</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5799,31 +5701,31 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>1.530650258584678</v>
+        <v>1.530649581263699</v>
       </c>
       <c r="F10">
-        <v>1.469969485416289</v>
+        <v>1.473270505254472</v>
       </c>
       <c r="G10">
-        <v>1.601742132278991</v>
+        <v>1.603092934976851</v>
       </c>
       <c r="H10">
-        <v>2.948024882279215E-85</v>
+        <v>1.187989214877188E-87</v>
       </c>
       <c r="I10">
-        <v>2.694494742403203E-83</v>
+        <v>1.36024765103438E-85</v>
       </c>
       <c r="J10">
-        <v>1.347247371201601E-82</v>
+        <v>5.440990604137521E-85</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5909,31 +5811,31 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>1.499781083096933</v>
       </c>
       <c r="F11">
-        <v>1.4456224717993</v>
+        <v>1.446596164803212</v>
       </c>
       <c r="G11">
-        <v>1.564428921178518</v>
+        <v>1.562253294199744</v>
       </c>
       <c r="H11">
-        <v>5.660556026612399E-90</v>
+        <v>1.166504119291104E-96</v>
       </c>
       <c r="I11">
-        <v>3.703620943126398E-88</v>
+        <v>7.632269809076078E-95</v>
       </c>
       <c r="J11">
-        <v>2.592534660188479E-87</v>
+        <v>5.342588866353255E-94</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6019,31 +5921,31 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>1.466616976720334</v>
+        <v>1.466616868721971</v>
       </c>
       <c r="F12">
-        <v>1.410422317135081</v>
+        <v>1.41344663996734</v>
       </c>
       <c r="G12">
-        <v>1.528436551027474</v>
+        <v>1.530055836560861</v>
       </c>
       <c r="H12">
-        <v>6.030883305672471E-77</v>
+        <v>3.319735367946109E-79</v>
       </c>
       <c r="I12">
-        <v>4.593522784487199E-75</v>
+        <v>3.040877597038636E-77</v>
       </c>
       <c r="J12">
-        <v>2.756113670692319E-74</v>
+        <v>1.520438798519318E-76</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6129,31 +6031,31 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>1.445750280084549</v>
+        <v>1.44575012006585</v>
       </c>
       <c r="F13">
-        <v>1.395225728363068</v>
+        <v>1.397236448212142</v>
       </c>
       <c r="G13">
-        <v>1.507510590840569</v>
+        <v>1.515461667904072</v>
       </c>
       <c r="H13">
-        <v>9.436161370779644E-77</v>
+        <v>2.086245803170993E-70</v>
       </c>
       <c r="I13">
-        <v>6.160465352066138E-75</v>
+        <v>1.592500963087191E-68</v>
       </c>
       <c r="J13">
-        <v>4.312325746446297E-74</v>
+        <v>9.555005778523151E-68</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6239,31 +6141,31 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1.368079760128948</v>
       </c>
       <c r="F14">
-        <v>1.324779838826504</v>
+        <v>1.325413835557587</v>
       </c>
       <c r="G14">
-        <v>1.422787914268874</v>
+        <v>1.425991421642915</v>
       </c>
       <c r="H14">
-        <v>1.156965101916934E-66</v>
+        <v>4.190635253087447E-63</v>
       </c>
       <c r="I14">
-        <v>6.623625208474449E-65</v>
+        <v>2.399138682392564E-61</v>
       </c>
       <c r="J14">
-        <v>5.298900166779559E-64</v>
+        <v>1.919310945914051E-60</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6349,31 +6251,31 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>1.35187254985455</v>
+        <v>1.351872441479521</v>
       </c>
       <c r="F15">
-        <v>1.307504312062819</v>
+        <v>1.310479272244656</v>
       </c>
       <c r="G15">
-        <v>1.407440840703956</v>
+        <v>1.408268518514215</v>
       </c>
       <c r="H15">
-        <v>1.334047461933986E-57</v>
+        <v>4.383718916248429E-61</v>
       </c>
       <c r="I15">
-        <v>7.620746126297891E-56</v>
+        <v>2.868204662345401E-59</v>
       </c>
       <c r="J15">
-        <v>6.096596901038314E-55</v>
+        <v>2.007743263641781E-58</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6459,31 +6361,31 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>1.242772373961637</v>
       </c>
       <c r="F16">
-        <v>1.205420101723954</v>
+        <v>1.204075717421138</v>
       </c>
       <c r="G16">
-        <v>1.291418736508205</v>
+        <v>1.291628158420121</v>
       </c>
       <c r="H16">
-        <v>5.247345728383984E-32</v>
+        <v>2.154638741569783E-33</v>
       </c>
       <c r="I16">
-        <v>2.670315937333184E-30</v>
+        <v>1.0964717151544E-31</v>
       </c>
       <c r="J16">
-        <v>2.403284343599865E-29</v>
+        <v>9.868245436389604E-31</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -6569,31 +6471,31 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <v>1.237989022588344</v>
+        <v>1.237988869231768</v>
       </c>
       <c r="F17">
-        <v>1.198309561774153</v>
+        <v>1.198570609182585</v>
       </c>
       <c r="G17">
-        <v>1.278908099541374</v>
+        <v>1.280099425401401</v>
       </c>
       <c r="H17">
-        <v>9.656655311306536E-32</v>
+        <v>3.525008698082583E-35</v>
       </c>
       <c r="I17">
-        <v>4.903434974741208E-30</v>
+        <v>2.018067479652278E-33</v>
       </c>
       <c r="J17">
-        <v>4.413091477267087E-29</v>
+        <v>1.614453983721823E-32</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6679,31 +6581,31 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>1.213846437151151</v>
       </c>
       <c r="F18">
-        <v>1.169607787251828</v>
+        <v>1.172923668889223</v>
       </c>
       <c r="G18">
-        <v>1.266266661520815</v>
+        <v>1.261332747283991</v>
       </c>
       <c r="H18">
-        <v>1.436495543402459E-21</v>
+        <v>1.214019526495654E-24</v>
       </c>
       <c r="I18">
-        <v>5.981045080712056E-20</v>
+        <v>5.054735846681905E-23</v>
       </c>
       <c r="J18">
-        <v>6.579149588783261E-19</v>
+        <v>5.560209431350095E-22</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -6789,31 +6691,31 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>1.212907250803182</v>
+        <v>1.212907102512555</v>
       </c>
       <c r="F19">
-        <v>1.166394615493598</v>
+        <v>1.164607262675236</v>
       </c>
       <c r="G19">
-        <v>1.263692372984625</v>
+        <v>1.262576273918834</v>
       </c>
       <c r="H19">
-        <v>9.111768857396131E-21</v>
+        <v>1.903721489214404E-20</v>
       </c>
       <c r="I19">
-        <v>4.164078367830034E-19</v>
+        <v>9.687827134002193E-19</v>
       </c>
       <c r="J19">
-        <v>4.164078367830033E-18</v>
+        <v>8.719044420601971E-18</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6899,31 +6801,31 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>1.180784143476595</v>
+        <v>1.180784089030137</v>
       </c>
       <c r="F20">
-        <v>1.134138205415536</v>
+        <v>1.134868932553609</v>
       </c>
       <c r="G20">
-        <v>1.237717604448722</v>
+        <v>1.240540077553077</v>
       </c>
       <c r="H20">
-        <v>2.804485806610976E-14</v>
+        <v>7.016284609104436E-14</v>
       </c>
       <c r="I20">
-        <v>9.154642954437257E-13</v>
+        <v>2.142305567313221E-12</v>
       </c>
       <c r="J20">
-        <v>1.281650013621216E-11</v>
+        <v>3.213458350969831E-11</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7009,31 +6911,31 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1.141610972776687</v>
       </c>
       <c r="F21">
-        <v>1.036483211749094</v>
+        <v>1.03874184196095</v>
       </c>
       <c r="G21">
-        <v>1.194839255565803</v>
+        <v>1.18867763336792</v>
       </c>
       <c r="H21">
-        <v>1.165098818557421E-05</v>
+        <v>6.145077191324114E-06</v>
       </c>
       <c r="I21">
-        <v>0.0001617015936058</v>
+        <v>9.381484512088149E-05</v>
       </c>
       <c r="J21">
-        <v>0.0053361525889929</v>
+        <v>0.0028144453536264</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -7119,31 +7021,31 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>1.138893380884451</v>
       </c>
       <c r="F22">
-        <v>1.100893133831859</v>
+        <v>1.097186675820266</v>
       </c>
       <c r="G22">
-        <v>1.183674924872077</v>
+        <v>1.186415163310367</v>
       </c>
       <c r="H22">
-        <v>5.785409941751322E-12</v>
+        <v>5.893435034561059E-12</v>
       </c>
       <c r="I22">
-        <v>1.892655538087218E-10</v>
+        <v>1.927995175592118E-10</v>
       </c>
       <c r="J22">
-        <v>2.649717753322105E-09</v>
+        <v>2.699193245828965E-09</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7229,31 +7131,31 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>1.135665794246185</v>
       </c>
       <c r="F23">
-        <v>1.077562028468811</v>
+        <v>1.080020745961472</v>
       </c>
       <c r="G23">
-        <v>1.183736552077095</v>
+        <v>1.184254990630538</v>
       </c>
       <c r="H23">
-        <v>7.086180879655462E-08</v>
+        <v>2.2828120237264E-08</v>
       </c>
       <c r="I23">
-        <v>1.803039357156779E-06</v>
+        <v>5.808488371481618E-07</v>
       </c>
       <c r="J23">
-        <v>3.245470842882202E-05</v>
+        <v>1.045527906866691E-05</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -7339,31 +7241,31 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24">
-        <v>1.122009193291418</v>
+        <v>1.122009126202219</v>
       </c>
       <c r="F24">
-        <v>1.0827414545183</v>
+        <v>1.084482728773072</v>
       </c>
       <c r="G24">
-        <v>1.170939307595012</v>
+        <v>1.171451144841369</v>
       </c>
       <c r="H24">
-        <v>2.830066244397689E-09</v>
+        <v>3.432760622019012E-09</v>
       </c>
       <c r="I24">
-        <v>6.158763208046401E-08</v>
+        <v>8.274759815182674E-08</v>
       </c>
       <c r="J24">
-        <v>1.293340273689744E-06</v>
+        <v>1.572204364884708E-06</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -7449,31 +7351,31 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>1.118159825362704</v>
       </c>
       <c r="F25">
-        <v>1.074983647392868</v>
+        <v>1.075373700395686</v>
       </c>
       <c r="G25">
-        <v>1.16766935173078</v>
+        <v>1.166907995294503</v>
       </c>
       <c r="H25">
-        <v>1.037432506312994E-07</v>
+        <v>4.227759610713497E-07</v>
       </c>
       <c r="I25">
-        <v>2.500758357322901E-06</v>
+        <v>9.220542389079911E-06</v>
       </c>
       <c r="J25">
-        <v>4.751440878913512E-05</v>
+        <v>0.0001936313901706</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7559,31 +7461,31 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26">
-        <v>1.117644273495658</v>
+        <v>1.117644195639471</v>
       </c>
       <c r="F26">
-        <v>1.067928285349194</v>
+        <v>1.066682702394631</v>
       </c>
       <c r="G26">
-        <v>1.164501862134465</v>
+        <v>1.172381931751629</v>
       </c>
       <c r="H26">
-        <v>3.549736583713862E-07</v>
+        <v>1.002124549152371E-06</v>
       </c>
       <c r="I26">
-        <v>5.407432062524117E-06</v>
+        <v>1.480558204876729E-05</v>
       </c>
       <c r="J26">
-        <v>0.0001622229618757</v>
+        <v>0.0004589730435117</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -7669,31 +7571,31 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>1.111015690062691</v>
+        <v>1.111015769725609</v>
       </c>
       <c r="F27">
-        <v>1.046809774168616</v>
+        <v>1.046719958605007</v>
       </c>
       <c r="G27">
-        <v>1.160443324708809</v>
+        <v>1.159667210036859</v>
       </c>
       <c r="H27">
-        <v>4.314926443155294E-05</v>
+        <v>5.853410304152239E-05</v>
       </c>
       <c r="I27">
-        <v>0.0004695050915528</v>
+        <v>0.0006092867998413</v>
       </c>
       <c r="J27">
-        <v>0.0197192138452196</v>
+        <v>0.0268086191930172</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -7779,31 +7681,31 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>1.109300394356003</v>
       </c>
       <c r="F28">
-        <v>1.02599347456868</v>
+        <v>1.026425703858983</v>
       </c>
       <c r="G28">
-        <v>1.161922360407294</v>
+        <v>1.160209000383855</v>
       </c>
       <c r="H28">
-        <v>0.000303824496449</v>
+        <v>0.0002964330490082</v>
       </c>
       <c r="I28">
-        <v>0.002898992070285</v>
+        <v>0.0028284653426204</v>
       </c>
       <c r="J28">
-        <v>0.1391516193736836</v>
+        <v>0.1357663364457798</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7889,31 +7791,31 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>1.108764896894138</v>
+        <v>1.10876511525475</v>
       </c>
       <c r="F29">
-        <v>1.019579162087498</v>
+        <v>1.020666438326151</v>
       </c>
       <c r="G29">
-        <v>1.12885121761502</v>
+        <v>1.129908248988354</v>
       </c>
       <c r="H29">
-        <v>4.392619824526338E-05</v>
+        <v>3.451935113999202E-05</v>
       </c>
       <c r="I29">
-        <v>0.0004562334681383</v>
+        <v>0.0003764253052884</v>
       </c>
       <c r="J29">
-        <v>0.0200742725980853</v>
+        <v>0.0158098628221163</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7999,31 +7901,31 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>1.098126575591772</v>
+        <v>1.098126565143868</v>
       </c>
       <c r="F30">
-        <v>1.055039196323977</v>
+        <v>1.053772920244466</v>
       </c>
       <c r="G30">
-        <v>1.150530275841772</v>
+        <v>1.149155668831279</v>
       </c>
       <c r="H30">
-        <v>1.050105959123502E-05</v>
+        <v>1.892665149187174E-05</v>
       </c>
       <c r="I30">
-        <v>0.0001230508777742</v>
+        <v>0.0002167101595819</v>
       </c>
       <c r="J30">
-        <v>0.0047989842331944</v>
+        <v>0.0086684063832772</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8106,34 +8008,34 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>1.097274805398675</v>
+        <v>1.097274811887479</v>
       </c>
       <c r="F31">
-        <v>1.02395667107263</v>
+        <v>1.022238720205486</v>
       </c>
       <c r="G31">
-        <v>1.128280371596351</v>
+        <v>1.126738343191005</v>
       </c>
       <c r="H31">
-        <v>0.0009610999982017</v>
+        <v>0.0012066501872477</v>
       </c>
       <c r="I31">
-        <v>0.0069717888758444</v>
+        <v>0.008772155329515301</v>
       </c>
       <c r="J31">
-        <v>0.4392226991782008</v>
+        <v>0.5526457857594647</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -8216,34 +8118,34 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32">
         <v>1.097209966444353</v>
       </c>
       <c r="F32">
-        <v>1.053603220607167</v>
+        <v>1.049693571824406</v>
       </c>
       <c r="G32">
-        <v>1.143944848285572</v>
+        <v>1.138947475279835</v>
       </c>
       <c r="H32">
-        <v>4.069058951385003E-06</v>
+        <v>3.539551695817365E-06</v>
       </c>
       <c r="I32">
-        <v>6.902329628645672E-05</v>
+        <v>6.00412843216427E-05</v>
       </c>
       <c r="J32">
-        <v>0.0018636289997343</v>
+        <v>0.0016211146766843</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -8329,31 +8231,31 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>1.095636692101154</v>
+        <v>1.095636661502493</v>
       </c>
       <c r="F33">
-        <v>1.025176399344871</v>
+        <v>1.020396550922182</v>
       </c>
       <c r="G33">
-        <v>1.141899343051222</v>
+        <v>1.141484415279678</v>
       </c>
       <c r="H33">
-        <v>0.0002373958105616</v>
+        <v>0.0002928137579484</v>
       </c>
       <c r="I33">
-        <v>0.0020469789703147</v>
+        <v>0.0023947982346494</v>
       </c>
       <c r="J33">
-        <v>0.1084898854266821</v>
+        <v>0.1341087011403699</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -8436,34 +8338,34 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34">
-        <v>1.08984917396415</v>
+        <v>1.089849136609266</v>
       </c>
       <c r="F34">
-        <v>1.034711663997639</v>
+        <v>1.036450994853654</v>
       </c>
       <c r="G34">
-        <v>1.139905254092672</v>
+        <v>1.140474057123439</v>
       </c>
       <c r="H34">
-        <v>0.0004629833745717</v>
+        <v>0.0006977389602053</v>
       </c>
       <c r="I34">
-        <v>0.0036479896927463</v>
+        <v>0.0053260740629011</v>
       </c>
       <c r="J34">
-        <v>0.2115834021792906</v>
+        <v>0.319564443774069</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -8546,34 +8448,34 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>1.047889409320944</v>
       </c>
       <c r="F35">
-        <v>1.000012649941557</v>
+        <v>1.000018828760029</v>
       </c>
       <c r="G35">
-        <v>1.060564478448252</v>
+        <v>1.060505803721666</v>
       </c>
       <c r="H35">
-        <v>0.0003386483608743</v>
+        <v>0.0001554792676381</v>
       </c>
       <c r="I35">
-        <v>0.003102018985609</v>
+        <v>0.0016183978313241</v>
       </c>
       <c r="J35">
-        <v>0.1551009492804534</v>
+        <v>0.071209504578264</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -8609,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W35">
         <v>0.9985355137905784</v>
@@ -8639,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="AG35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH35">
         <v>0.9973651862219296</v>
@@ -8653,34 +8555,34 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <v>1.047847111488805</v>
       </c>
       <c r="F36">
-        <v>1.000014031034694</v>
+        <v>1.00001560482436</v>
       </c>
       <c r="G36">
-        <v>1.059889393336977</v>
+        <v>1.059906756343462</v>
       </c>
       <c r="H36">
-        <v>9.618266186494886E-05</v>
+        <v>0.0001882607961215</v>
       </c>
       <c r="I36">
-        <v>0.0010244571891661</v>
+        <v>0.0018345413749714</v>
       </c>
       <c r="J36">
-        <v>0.0440516591341465</v>
+        <v>0.0862234446236584</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -8716,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W36">
         <v>0.9985355137905784</v>
@@ -8746,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="AG36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH36">
         <v>0.9973651862219296</v>
@@ -8760,34 +8662,34 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37">
-        <v>1.041812399819348</v>
+        <v>1.041812315116435</v>
       </c>
       <c r="F37">
-        <v>1.00003113008371</v>
+        <v>1.000036166914439</v>
       </c>
       <c r="G37">
-        <v>1.054374799483791</v>
+        <v>1.055300311139829</v>
       </c>
       <c r="H37">
-        <v>0.0004036873817013</v>
+        <v>0.0003090893298198</v>
       </c>
       <c r="I37">
-        <v>0.0032365812883771</v>
+        <v>0.0024835598782012</v>
       </c>
       <c r="J37">
-        <v>0.1844851334374957</v>
+        <v>0.1415629130574735</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -8823,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W37">
         <v>0.9985355137905784</v>
@@ -8853,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="AG37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH37">
         <v>0.9973651862219296</v>
@@ -8867,34 +8769,34 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38">
-        <v>1.037429002618232</v>
+        <v>1.037429124879188</v>
       </c>
       <c r="F38">
-        <v>1.000027529622607</v>
+        <v>1.000031104982019</v>
       </c>
       <c r="G38">
-        <v>1.048451890115432</v>
+        <v>1.048708837210353</v>
       </c>
       <c r="H38">
-        <v>9.062112731034636E-05</v>
+        <v>0.0001639165531503</v>
       </c>
       <c r="I38">
-        <v>0.0008627886496005</v>
+        <v>0.0015014756268569</v>
       </c>
       <c r="J38">
-        <v>0.0414138551808282</v>
+        <v>0.07507378134284549</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -8930,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="V38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W38">
         <v>0.9985355137905784</v>
@@ -8960,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="AG38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH38">
         <v>0.9973651862219296</v>
@@ -9100,22 +9002,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>3.790409632904609</v>
       </c>
       <c r="F2">
-        <v>3.612768936684815</v>
+        <v>3.613526562491353</v>
       </c>
       <c r="G2">
-        <v>4.001449477052986</v>
+        <v>3.995802300192924</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9210,22 +9112,22 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>3.215824410656593</v>
+        <v>3.252244177008345</v>
       </c>
       <c r="F3">
-        <v>3.07266076574769</v>
+        <v>3.100951308319858</v>
       </c>
       <c r="G3">
-        <v>3.370324508963634</v>
+        <v>3.40963700743971</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9320,31 +9222,31 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>2.313642248339196</v>
+        <v>2.317045235490087</v>
       </c>
       <c r="F4">
-        <v>2.215211205509567</v>
+        <v>2.226434073626833</v>
       </c>
       <c r="G4">
-        <v>2.429451825941274</v>
+        <v>2.428700332354929</v>
       </c>
       <c r="H4">
-        <v>1.876506513185001E-242</v>
+        <v>1.14704481135403E-287</v>
       </c>
       <c r="I4">
-        <v>9.673391075468681E-240</v>
+        <v>5.913016002530025E-285</v>
       </c>
       <c r="J4">
-        <v>1.934678215093736E-239</v>
+        <v>1.182603200506005E-284</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9422,7 +9324,7 @@
         <v>0.8390455695817471</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -9430,31 +9332,31 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>2.308049595634003</v>
+        <v>2.313642248339196</v>
       </c>
       <c r="F5">
-        <v>2.218608967054373</v>
+        <v>2.217346981604792</v>
       </c>
       <c r="G5">
-        <v>2.417739195557002</v>
+        <v>2.433993253692011</v>
       </c>
       <c r="H5">
-        <v>1.038671625919354E-306</v>
+        <v>1.39305666957842E-248</v>
       </c>
       <c r="I5">
-        <v>2.373364665225724E-304</v>
+        <v>7.181207131676756E-246</v>
       </c>
       <c r="J5">
-        <v>4.746729330451448E-304</v>
+        <v>1.436241426335351E-245</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9532,7 +9434,7 @@
         <v>0.8390455695817471</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -9540,31 +9442,31 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1.907878182067041</v>
       </c>
       <c r="F6">
-        <v>1.831632617349119</v>
+        <v>1.828775342814557</v>
       </c>
       <c r="G6">
-        <v>1.992583438574756</v>
+        <v>1.991830390543165</v>
       </c>
       <c r="H6">
-        <v>9.721633363082758E-192</v>
+        <v>1.255796259677204E-198</v>
       </c>
       <c r="I6">
-        <v>3.341001332446108E-189</v>
+        <v>4.315753145757325E-196</v>
       </c>
       <c r="J6">
-        <v>1.002300399733832E-188</v>
+        <v>1.294725943727198E-195</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -9650,31 +9552,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>1.742798785823047</v>
+        <v>1.765137245044355</v>
       </c>
       <c r="F7">
-        <v>1.675576552776288</v>
+        <v>1.688084044950972</v>
       </c>
       <c r="G7">
-        <v>1.825167501197156</v>
+        <v>1.841144600819049</v>
       </c>
       <c r="H7">
-        <v>9.010465730201978E-143</v>
+        <v>4.177023465878639E-141</v>
       </c>
       <c r="I7">
-        <v>1.372594279567435E-140</v>
+        <v>1.435503731106959E-138</v>
       </c>
       <c r="J7">
-        <v>4.117782838702304E-140</v>
+        <v>4.306511193320876E-138</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9760,31 +9662,31 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1.571474457567214</v>
       </c>
       <c r="F8">
-        <v>1.503630844211993</v>
+        <v>1.498082784391839</v>
       </c>
       <c r="G8">
-        <v>1.646033119625489</v>
+        <v>1.641266294429345</v>
       </c>
       <c r="H8">
-        <v>1.306737906626433E-80</v>
+        <v>9.014729881275736E-81</v>
       </c>
       <c r="I8">
-        <v>1.924638259616933E-78</v>
+        <v>1.327740929656469E-78</v>
       </c>
       <c r="J8">
-        <v>1.347246781731853E-77</v>
+        <v>9.294186507595283E-78</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9870,31 +9772,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1.564508667984249</v>
       </c>
       <c r="F9">
-        <v>1.506718093256741</v>
+        <v>1.494659355958628</v>
       </c>
       <c r="G9">
-        <v>1.62875665619943</v>
+        <v>1.629444568655066</v>
       </c>
       <c r="H9">
-        <v>6.537547037850396E-109</v>
+        <v>1.534828987123569E-96</v>
       </c>
       <c r="I9">
-        <v>1.68505274900594E-106</v>
+        <v>3.956021714310999E-94</v>
       </c>
       <c r="J9">
-        <v>6.740210996023759E-106</v>
+        <v>1.582408685724399E-93</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9980,31 +9882,31 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>1.530650258584678</v>
+        <v>1.557184660880863</v>
       </c>
       <c r="F10">
-        <v>1.469969485416289</v>
+        <v>1.48930627804549</v>
       </c>
       <c r="G10">
-        <v>1.601742132278991</v>
+        <v>1.628227382749877</v>
       </c>
       <c r="H10">
-        <v>2.948024882279215E-85</v>
+        <v>7.408588919354809E-81</v>
       </c>
       <c r="I10">
-        <v>2.694494742403203E-83</v>
+        <v>1.909563793963702E-78</v>
       </c>
       <c r="J10">
-        <v>1.347247371201601E-82</v>
+        <v>7.638255175854811E-78</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10090,31 +9992,31 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>1.495717327406394</v>
       </c>
       <c r="F11">
-        <v>1.443780329200952</v>
+        <v>1.446909124796108</v>
       </c>
       <c r="G11">
-        <v>1.5606900428659</v>
+        <v>1.564362205182346</v>
       </c>
       <c r="H11">
-        <v>8.127016470806824E-88</v>
+        <v>4.830613371397327E-84</v>
       </c>
       <c r="I11">
-        <v>1.675790796280367E-85</v>
+        <v>9.960724771821287E-82</v>
       </c>
       <c r="J11">
-        <v>8.378953981401835E-85</v>
+        <v>4.980362385910644E-81</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -10200,31 +10102,31 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>1.466616976720334</v>
+        <v>1.478094431938044</v>
       </c>
       <c r="F12">
-        <v>1.410422317135081</v>
+        <v>1.423202466559982</v>
       </c>
       <c r="G12">
-        <v>1.528436551027474</v>
+        <v>1.541230052360311</v>
       </c>
       <c r="H12">
-        <v>6.030883305672471E-77</v>
+        <v>5.901287166377454E-79</v>
       </c>
       <c r="I12">
-        <v>4.593522784487199E-75</v>
+        <v>1.216845413707031E-76</v>
       </c>
       <c r="J12">
-        <v>2.756113670692319E-74</v>
+        <v>6.084227068535155E-76</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -10310,31 +10212,31 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>1.445750280084549</v>
+        <v>1.436001333483556</v>
       </c>
       <c r="F13">
-        <v>1.395225728363068</v>
+        <v>1.389124340569363</v>
       </c>
       <c r="G13">
-        <v>1.507510590840569</v>
+        <v>1.505169971728535</v>
       </c>
       <c r="H13">
-        <v>9.436161370779644E-77</v>
+        <v>1.961800826566457E-66</v>
       </c>
       <c r="I13">
-        <v>6.160465352066138E-75</v>
+        <v>2.889452360271454E-64</v>
       </c>
       <c r="J13">
-        <v>4.312325746446297E-74</v>
+        <v>2.022616652190018E-63</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10420,31 +10322,31 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1.379173889014976</v>
       </c>
       <c r="F14">
-        <v>1.332775249614295</v>
+        <v>1.334691217534177</v>
       </c>
       <c r="G14">
-        <v>1.440060168372252</v>
+        <v>1.436367782520926</v>
       </c>
       <c r="H14">
-        <v>2.061424889042422E-60</v>
+        <v>2.836886644225873E-64</v>
       </c>
       <c r="I14">
-        <v>2.656661325753422E-58</v>
+        <v>3.656037662746094E-62</v>
       </c>
       <c r="J14">
-        <v>2.125329060602738E-57</v>
+        <v>2.924830130196875E-61</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10530,31 +10432,31 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>1.35187254985455</v>
+        <v>1.364415950087257</v>
       </c>
       <c r="F15">
-        <v>1.307504312062819</v>
+        <v>1.319078180852639</v>
       </c>
       <c r="G15">
-        <v>1.407440840703956</v>
+        <v>1.420796298202791</v>
       </c>
       <c r="H15">
-        <v>1.334047461933986E-57</v>
+        <v>1.138748499113555E-58</v>
       </c>
       <c r="I15">
-        <v>7.620746126297891E-56</v>
+        <v>1.467562128232594E-56</v>
       </c>
       <c r="J15">
-        <v>6.096596901038314E-55</v>
+        <v>1.174049702586075E-55</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -10640,31 +10542,31 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>1.259368039349737</v>
       </c>
       <c r="F16">
-        <v>1.218474552182634</v>
+        <v>1.221186821612813</v>
       </c>
       <c r="G16">
-        <v>1.303432141651652</v>
+        <v>1.30233533965202</v>
       </c>
       <c r="H16">
-        <v>1.848392139512198E-36</v>
+        <v>3.344258938396173E-39</v>
       </c>
       <c r="I16">
-        <v>2.117435884263418E-34</v>
+        <v>3.83103440609606E-37</v>
       </c>
       <c r="J16">
-        <v>1.905692295837076E-33</v>
+        <v>3.447930965486454E-36</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10747,222 +10649,222 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <v>1.237989022588344</v>
+        <v>1.229789773572766</v>
       </c>
       <c r="F17">
-        <v>1.198309561774153</v>
+        <v>1.179862805757014</v>
       </c>
       <c r="G17">
-        <v>1.278908099541374</v>
+        <v>1.287264150026414</v>
       </c>
       <c r="H17">
-        <v>9.656655311306536E-32</v>
+        <v>1.252472814274539E-20</v>
       </c>
       <c r="I17">
-        <v>4.903434974741208E-30</v>
+        <v>1.173908610470045E-18</v>
       </c>
       <c r="J17">
-        <v>4.413091477267087E-29</v>
+        <v>1.29129947151705E-17</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17">
         <v>23306</v>
       </c>
       <c r="N17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P17">
-        <v>19205</v>
+        <v>19202</v>
       </c>
       <c r="Q17">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="R17">
-        <v>0.9047619047619048</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="S17">
-        <v>0.8255244154057771</v>
+        <v>0.8255374032674119</v>
       </c>
       <c r="T17">
-        <v>0.0092750793263363</v>
+        <v>0.0095191603612399</v>
       </c>
       <c r="U17">
-        <v>0.9997917642771618</v>
+        <v>0.999635587485033</v>
       </c>
       <c r="V17">
-        <v>44.54124969490258</v>
+        <v>26.12193591129028</v>
       </c>
       <c r="W17">
-        <v>0.9909312679625308</v>
+        <v>0.9908419148328792</v>
       </c>
       <c r="X17">
-        <v>0.7746580584918282</v>
+        <v>0.7136649341919113</v>
       </c>
       <c r="Y17">
-        <v>0.9633068131370024</v>
+        <v>0.925673367575537</v>
       </c>
       <c r="Z17">
-        <v>0.8205936829017821</v>
+        <v>0.8206063831552854</v>
       </c>
       <c r="AA17">
-        <v>0.8303476502936356</v>
+        <v>0.8303609029885619</v>
       </c>
       <c r="AB17">
-        <v>0.0067644343531485</v>
+        <v>0.0069707756182469</v>
       </c>
       <c r="AC17">
-        <v>0.012705639325059</v>
+        <v>0.0129870025744206</v>
       </c>
       <c r="AD17">
-        <v>0.9994646215882148</v>
+        <v>0.9992478811067744</v>
       </c>
       <c r="AE17">
-        <v>0.9999190227990148</v>
+        <v>0.9998234721567468</v>
       </c>
       <c r="AF17">
-        <v>15.90517842572119</v>
+        <v>11.69199714168685</v>
       </c>
       <c r="AG17">
-        <v>124.7344022985207</v>
+        <v>58.36090511181143</v>
       </c>
       <c r="AH17">
-        <v>0.9879926261312958</v>
+        <v>0.987859873427536</v>
       </c>
       <c r="AI17">
-        <v>0.9938786503608348</v>
+        <v>0.9938329580928196</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>1.229789773572766</v>
+        <v>1.223797321079438</v>
       </c>
       <c r="F18">
-        <v>1.180687969583176</v>
+        <v>1.180034752712998</v>
       </c>
       <c r="G18">
-        <v>1.286533437299556</v>
+        <v>1.26770836880038</v>
       </c>
       <c r="H18">
-        <v>1.638530800566837E-21</v>
+        <v>3.786872733859897E-26</v>
       </c>
       <c r="I18">
-        <v>1.535750232167645E-19</v>
+        <v>4.33807309845506E-24</v>
       </c>
       <c r="J18">
-        <v>1.689325255384409E-18</v>
+        <v>3.904265788609553E-23</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M18">
         <v>23306</v>
       </c>
       <c r="N18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>19202</v>
+        <v>19205</v>
       </c>
       <c r="Q18">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="R18">
-        <v>0.8478260869565217</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="S18">
-        <v>0.8255374032674119</v>
+        <v>0.8255244154057771</v>
       </c>
       <c r="T18">
-        <v>0.0095191603612399</v>
+        <v>0.0092750793263363</v>
       </c>
       <c r="U18">
-        <v>0.999635587485033</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V18">
-        <v>26.12193591129028</v>
+        <v>44.54124969490258</v>
       </c>
       <c r="W18">
-        <v>0.9908419148328792</v>
+        <v>0.9909312679625308</v>
       </c>
       <c r="X18">
-        <v>0.7136649341919113</v>
+        <v>0.7746580584918282</v>
       </c>
       <c r="Y18">
-        <v>0.925673367575537</v>
+        <v>0.9633068131370024</v>
       </c>
       <c r="Z18">
-        <v>0.8206063831552854</v>
+        <v>0.8205936829017821</v>
       </c>
       <c r="AA18">
-        <v>0.8303609029885619</v>
+        <v>0.8303476502936356</v>
       </c>
       <c r="AB18">
-        <v>0.0069707756182469</v>
+        <v>0.0067644343531485</v>
       </c>
       <c r="AC18">
-        <v>0.0129870025744206</v>
+        <v>0.012705639325059</v>
       </c>
       <c r="AD18">
-        <v>0.9992478811067744</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE18">
-        <v>0.9998234721567468</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF18">
-        <v>11.69199714168685</v>
+        <v>15.90517842572119</v>
       </c>
       <c r="AG18">
-        <v>58.36090511181143</v>
+        <v>124.7344022985207</v>
       </c>
       <c r="AH18">
-        <v>0.987859873427536</v>
+        <v>0.9879926261312958</v>
       </c>
       <c r="AI18">
-        <v>0.9938329580928196</v>
+        <v>0.9938786503608348</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -10970,31 +10872,31 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>1.212907250803182</v>
+        <v>1.21601630040268</v>
       </c>
       <c r="F19">
-        <v>1.166394615493598</v>
+        <v>1.170642306359843</v>
       </c>
       <c r="G19">
-        <v>1.263692372984625</v>
+        <v>1.271077404166602</v>
       </c>
       <c r="H19">
-        <v>9.111768857396131E-21</v>
+        <v>1.019195298581859E-20</v>
       </c>
       <c r="I19">
-        <v>4.164078367830034E-19</v>
+        <v>9.552639571253608E-19</v>
       </c>
       <c r="J19">
-        <v>4.164078367830033E-18</v>
+        <v>1.050790352837897E-17</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -11080,31 +10982,31 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>1.180784143476595</v>
+        <v>1.188724321449482</v>
       </c>
       <c r="F20">
-        <v>1.134138205415536</v>
+        <v>1.138338726532696</v>
       </c>
       <c r="G20">
-        <v>1.237717604448722</v>
+        <v>1.247597549649256</v>
       </c>
       <c r="H20">
-        <v>2.804485806610976E-14</v>
+        <v>6.956055468542021E-14</v>
       </c>
       <c r="I20">
-        <v>9.154642954437257E-13</v>
+        <v>3.984273993370457E-12</v>
       </c>
       <c r="J20">
-        <v>1.281650013621216E-11</v>
+        <v>7.171693188066824E-11</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11190,31 +11092,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1.148162377843701</v>
       </c>
       <c r="F21">
-        <v>1.101825571284002</v>
+        <v>1.104518748705847</v>
       </c>
       <c r="G21">
-        <v>1.195368377110118</v>
+        <v>1.198831764682822</v>
       </c>
       <c r="H21">
-        <v>1.747356867793497E-11</v>
+        <v>1.020010574877083E-11</v>
       </c>
       <c r="I21">
-        <v>1.000847183719497E-09</v>
+        <v>7.010872684655152E-10</v>
       </c>
       <c r="J21">
-        <v>1.801524930695096E-08</v>
+        <v>1.051630902698273E-08</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -11300,31 +11202,31 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>1.144438661021554</v>
       </c>
       <c r="F22">
-        <v>1.045211423207825</v>
+        <v>1.033191009671812</v>
       </c>
       <c r="G22">
-        <v>1.196481316082531</v>
+        <v>1.197566255786819</v>
       </c>
       <c r="H22">
-        <v>1.210348115822816E-05</v>
+        <v>3.233822142830804E-05</v>
       </c>
       <c r="I22">
-        <v>0.0002773042016474</v>
+        <v>0.0006061946598651</v>
       </c>
       <c r="J22">
-        <v>0.0124786890741332</v>
+        <v>0.0333407062925855</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11410,31 +11312,31 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>1.137538744844295</v>
       </c>
       <c r="F23">
-        <v>1.071899036222416</v>
+        <v>1.081050213263556</v>
       </c>
       <c r="G23">
-        <v>1.186127869473592</v>
+        <v>1.187979565129255</v>
       </c>
       <c r="H23">
-        <v>1.093434843055527E-06</v>
+        <v>1.781150783302523E-07</v>
       </c>
       <c r="I23">
-        <v>3.416155524818935E-05</v>
+        <v>6.801357250314451E-06</v>
       </c>
       <c r="J23">
-        <v>0.0011273313231902</v>
+        <v>0.0001836366457584</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11517,34 +11419,34 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>1.122009193291418</v>
+        <v>1.135445627627982</v>
       </c>
       <c r="F24">
-        <v>1.0827414545183</v>
+        <v>1.091883732775495</v>
       </c>
       <c r="G24">
-        <v>1.170939307595012</v>
+        <v>1.166569948043971</v>
       </c>
       <c r="H24">
-        <v>2.830066244397689E-09</v>
+        <v>4.514289803197987E-14</v>
       </c>
       <c r="I24">
-        <v>6.158763208046401E-08</v>
+        <v>2.737783992410073E-12</v>
       </c>
       <c r="J24">
-        <v>1.293340273689744E-06</v>
+        <v>4.654232787097124E-11</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -11556,70 +11458,70 @@
         <v>23306</v>
       </c>
       <c r="N24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P24">
-        <v>19204</v>
+        <v>19202</v>
       </c>
       <c r="Q24">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="R24">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="S24">
-        <v>0.8247015374044491</v>
+        <v>0.8246156488877437</v>
       </c>
       <c r="T24">
-        <v>0.0036612155235538</v>
+        <v>0.0031730534537466</v>
       </c>
       <c r="U24">
-        <v>0.9997397053464522</v>
+        <v>0.999635587485033</v>
       </c>
       <c r="V24">
-        <v>14.06565779838879</v>
+        <v>8.707311970430094</v>
       </c>
       <c r="W24">
-        <v>0.9965981936579908</v>
+        <v>0.9971903351841986</v>
       </c>
       <c r="X24">
-        <v>0.5169157012050689</v>
+        <v>0.4198017460741785</v>
       </c>
       <c r="Y24">
-        <v>0.8937409454927827</v>
+        <v>0.8265922419445324</v>
       </c>
       <c r="Z24">
-        <v>0.8197642526817812</v>
+        <v>0.8196774367204107</v>
       </c>
       <c r="AA24">
-        <v>0.829531697547202</v>
+        <v>0.8294467648112496</v>
       </c>
       <c r="AB24">
-        <v>0.0022197283046218</v>
+        <v>0.0018550466433378</v>
       </c>
       <c r="AC24">
-        <v>0.0060331415410062</v>
+        <v>0.0054224141733702</v>
       </c>
       <c r="AD24">
-        <v>0.9993907290013884</v>
+        <v>0.9992478811067744</v>
       </c>
       <c r="AE24">
-        <v>0.9998888183446052</v>
+        <v>0.9998234721567468</v>
       </c>
       <c r="AF24">
-        <v>5.114730807038924</v>
+        <v>3.476025005413966</v>
       </c>
       <c r="AG24">
-        <v>38.6809661671936</v>
+        <v>21.81148916716898</v>
       </c>
       <c r="AH24">
-        <v>0.9947360301760264</v>
+        <v>0.9954481063294864</v>
       </c>
       <c r="AI24">
-        <v>0.9984638431430036</v>
+        <v>0.9989356132801148</v>
       </c>
       <c r="AJ24">
         <v>1</v>
@@ -11627,254 +11529,254 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>1.119580930885562</v>
+        <v>1.1202934782385</v>
       </c>
       <c r="F25">
-        <v>1.074914835703685</v>
+        <v>1.069225802332807</v>
       </c>
       <c r="G25">
-        <v>1.168806607050756</v>
+        <v>1.169326202543472</v>
       </c>
       <c r="H25">
-        <v>3.316171652510908E-07</v>
+        <v>6.533365307500191E-07</v>
       </c>
       <c r="I25">
-        <v>1.139657657912915E-05</v>
+        <v>1.530886280007431E-05</v>
       </c>
       <c r="J25">
-        <v>0.0003418972973738</v>
+        <v>0.0006735899632032</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M25">
         <v>23306</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>19205</v>
+        <v>19198</v>
       </c>
       <c r="Q25">
-        <v>4087</v>
+        <v>4080</v>
       </c>
       <c r="R25">
-        <v>0.7142857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="S25">
-        <v>0.8245320281641766</v>
+        <v>0.8247272102414297</v>
       </c>
       <c r="T25">
-        <v>0.0024408103490358</v>
+        <v>0.0041493775933609</v>
       </c>
       <c r="U25">
-        <v>0.9997917642771618</v>
+        <v>0.9994273517621948</v>
       </c>
       <c r="V25">
-        <v>11.72138149865858</v>
+        <v>7.245944926442429</v>
       </c>
       <c r="W25">
-        <v>0.997766960375182</v>
+        <v>0.9964212212631072</v>
       </c>
       <c r="X25">
-        <v>0.4304618966267685</v>
+        <v>0.4163167366300963</v>
       </c>
       <c r="Y25">
-        <v>0.892116841909203</v>
+        <v>0.7700419803489511</v>
       </c>
       <c r="Z25">
-        <v>0.8195935565819397</v>
+        <v>0.8197893452866185</v>
       </c>
       <c r="AA25">
-        <v>0.8293634586696055</v>
+        <v>0.8295579053300219</v>
       </c>
       <c r="AB25">
-        <v>0.0013261336552317</v>
+        <v>0.0025919905361006</v>
       </c>
       <c r="AC25">
-        <v>0.0044882136180963</v>
+        <v>0.0066362883384473</v>
       </c>
       <c r="AD25">
-        <v>0.9994646215882148</v>
+        <v>0.9989747513601708</v>
       </c>
       <c r="AE25">
-        <v>0.9999190227990148</v>
+        <v>0.999680213738406</v>
       </c>
       <c r="AF25">
-        <v>3.677800100424876</v>
+        <v>3.396478195071333</v>
       </c>
       <c r="AG25">
-        <v>37.35678407894533</v>
+        <v>15.45828203850256</v>
       </c>
       <c r="AH25">
-        <v>0.9962431192128968</v>
+        <v>0.9944249622791796</v>
       </c>
       <c r="AI25">
-        <v>0.9992931323860756</v>
+        <v>0.9984214876383232</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>1.117644273495658</v>
+        <v>1.119580930885562</v>
       </c>
       <c r="F26">
-        <v>1.067928285349194</v>
+        <v>1.075084033183846</v>
       </c>
       <c r="G26">
-        <v>1.164501862134465</v>
+        <v>1.168956905366573</v>
       </c>
       <c r="H26">
-        <v>3.549736583713862E-07</v>
+        <v>1.023285324218556E-06</v>
       </c>
       <c r="I26">
-        <v>5.407432062524117E-06</v>
+        <v>3.102962262556858E-05</v>
       </c>
       <c r="J26">
-        <v>0.0001622229618757</v>
+        <v>0.0010550071692693</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M26">
         <v>23306</v>
       </c>
       <c r="N26">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>19198</v>
+        <v>19205</v>
       </c>
       <c r="Q26">
-        <v>4080</v>
+        <v>4087</v>
       </c>
       <c r="R26">
-        <v>0.6071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S26">
-        <v>0.8247272102414297</v>
+        <v>0.8245320281641766</v>
       </c>
       <c r="T26">
-        <v>0.0041493775933609</v>
+        <v>0.0024408103490358</v>
       </c>
       <c r="U26">
-        <v>0.9994273517621948</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V26">
-        <v>7.245944926442429</v>
+        <v>11.72138149865858</v>
       </c>
       <c r="W26">
-        <v>0.9964212212631072</v>
+        <v>0.997766960375182</v>
       </c>
       <c r="X26">
-        <v>0.4163167366300963</v>
+        <v>0.4304618966267685</v>
       </c>
       <c r="Y26">
-        <v>0.7700419803489511</v>
+        <v>0.892116841909203</v>
       </c>
       <c r="Z26">
-        <v>0.8197893452866185</v>
+        <v>0.8195935565819397</v>
       </c>
       <c r="AA26">
-        <v>0.8295579053300219</v>
+        <v>0.8293634586696055</v>
       </c>
       <c r="AB26">
-        <v>0.0025919905361006</v>
+        <v>0.0013261336552317</v>
       </c>
       <c r="AC26">
-        <v>0.0066362883384473</v>
+        <v>0.0044882136180963</v>
       </c>
       <c r="AD26">
-        <v>0.9989747513601708</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE26">
-        <v>0.999680213738406</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF26">
-        <v>3.396478195071333</v>
+        <v>3.677800100424876</v>
       </c>
       <c r="AG26">
-        <v>15.45828203850256</v>
+        <v>37.35678407894533</v>
       </c>
       <c r="AH26">
-        <v>0.9944249622791796</v>
+        <v>0.9962431192128968</v>
       </c>
       <c r="AI26">
-        <v>0.9984214876383232</v>
+        <v>0.9992931323860756</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>1.111015690062691</v>
+        <v>1.117466100972342</v>
       </c>
       <c r="F27">
-        <v>1.046809774168616</v>
+        <v>1.076178887836005</v>
       </c>
       <c r="G27">
-        <v>1.160443324708809</v>
+        <v>1.168736181285046</v>
       </c>
       <c r="H27">
-        <v>4.314926443155294E-05</v>
+        <v>2.800628031416982E-07</v>
       </c>
       <c r="I27">
-        <v>0.0004695050915528</v>
+        <v>7.218618750977271E-06</v>
       </c>
       <c r="J27">
-        <v>0.0197192138452196</v>
+        <v>0.000288744750039</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -11886,70 +11788,70 @@
         <v>23306</v>
       </c>
       <c r="N27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>19202</v>
+        <v>19204</v>
       </c>
       <c r="Q27">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="R27">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="S27">
-        <v>0.8246156488877437</v>
+        <v>0.8247015374044491</v>
       </c>
       <c r="T27">
-        <v>0.0031730534537466</v>
+        <v>0.0036612155235538</v>
       </c>
       <c r="U27">
-        <v>0.999635587485033</v>
+        <v>0.9997397053464522</v>
       </c>
       <c r="V27">
-        <v>8.707311970430094</v>
+        <v>14.06565779838879</v>
       </c>
       <c r="W27">
-        <v>0.9971903351841986</v>
+        <v>0.9965981936579908</v>
       </c>
       <c r="X27">
-        <v>0.4198017460741785</v>
+        <v>0.5169157012050689</v>
       </c>
       <c r="Y27">
-        <v>0.8265922419445324</v>
+        <v>0.8937409454927827</v>
       </c>
       <c r="Z27">
-        <v>0.8196774367204107</v>
+        <v>0.8197642526817812</v>
       </c>
       <c r="AA27">
-        <v>0.8294467648112496</v>
+        <v>0.829531697547202</v>
       </c>
       <c r="AB27">
-        <v>0.0018550466433378</v>
+        <v>0.0022197283046218</v>
       </c>
       <c r="AC27">
-        <v>0.0054224141733702</v>
+        <v>0.0060331415410062</v>
       </c>
       <c r="AD27">
-        <v>0.9992478811067744</v>
+        <v>0.9993907290013884</v>
       </c>
       <c r="AE27">
-        <v>0.9998234721567468</v>
+        <v>0.9998888183446052</v>
       </c>
       <c r="AF27">
-        <v>3.476025005413966</v>
+        <v>5.114730807038924</v>
       </c>
       <c r="AG27">
-        <v>21.81148916716898</v>
+        <v>38.6809661671936</v>
       </c>
       <c r="AH27">
-        <v>0.9954481063294864</v>
+        <v>0.9947360301760264</v>
       </c>
       <c r="AI27">
-        <v>0.9989356132801148</v>
+        <v>0.9984638431430036</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -11957,109 +11859,109 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>1.108764896894138</v>
+        <v>1.100659640288083</v>
       </c>
       <c r="F28">
-        <v>1.019579162087498</v>
+        <v>1.055775123770582</v>
       </c>
       <c r="G28">
-        <v>1.12885121761502</v>
+        <v>1.153235224254674</v>
       </c>
       <c r="H28">
-        <v>4.392619824526338E-05</v>
+        <v>2.943341092033117E-05</v>
       </c>
       <c r="I28">
-        <v>0.0004562334681383</v>
+        <v>0.0004816801056962</v>
       </c>
       <c r="J28">
-        <v>0.0200742725980853</v>
+        <v>0.0303458466588614</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M28">
         <v>23306</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>19207</v>
+        <v>19205</v>
       </c>
       <c r="Q28">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="R28">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S28">
-        <v>0.824405528371534</v>
+        <v>0.8245320281641766</v>
       </c>
       <c r="T28">
-        <v>0.0014644862094215</v>
+        <v>0.0024408103490358</v>
       </c>
       <c r="U28">
-        <v>0.9998958821385808</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V28">
-        <v>14.06565779838279</v>
+        <v>11.72138149865858</v>
       </c>
       <c r="W28">
-        <v>0.998639489998606</v>
+        <v>0.997766960375182</v>
       </c>
       <c r="X28">
-        <v>0.3589167857050852</v>
+        <v>0.4304618966267685</v>
       </c>
       <c r="Y28">
-        <v>0.941436390491302</v>
+        <v>0.892116841909203</v>
       </c>
       <c r="Z28">
-        <v>0.8194663354388473</v>
+        <v>0.8195935565819397</v>
       </c>
       <c r="AA28">
-        <v>0.8292377495052702</v>
+        <v>0.8293634586696055</v>
       </c>
       <c r="AB28">
-        <v>0.0006712072339467</v>
+        <v>0.0013261336552317</v>
       </c>
       <c r="AC28">
-        <v>0.0031923219815414</v>
+        <v>0.0044882136180963</v>
       </c>
       <c r="AD28">
-        <v>0.9996203897575818</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE28">
-        <v>0.9999714487121196</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF28">
-        <v>2.839717834592593</v>
+        <v>3.677800100424876</v>
       </c>
       <c r="AG28">
-        <v>69.66985483245752</v>
+        <v>37.35678407894533</v>
       </c>
       <c r="AH28">
-        <v>0.9974602170611904</v>
+        <v>0.9962431192128968</v>
       </c>
       <c r="AI28">
-        <v>0.999820157161713</v>
+        <v>0.9992931323860756</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -12067,46 +11969,46 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>1.098126575591772</v>
+        <v>1.096987874490957</v>
       </c>
       <c r="F29">
-        <v>1.055039196323977</v>
+        <v>1.018006262825786</v>
       </c>
       <c r="G29">
-        <v>1.150530275841772</v>
+        <v>1.14341458698242</v>
       </c>
       <c r="H29">
-        <v>1.050105959123502E-05</v>
+        <v>0.0005909418034504</v>
       </c>
       <c r="I29">
-        <v>0.0001230508777742</v>
+        <v>0.0069234204472429</v>
       </c>
       <c r="J29">
-        <v>0.0047989842331944</v>
+        <v>0.6092609993573815</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M29">
         <v>23306</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>4</v>
@@ -12115,43 +12017,43 @@
         <v>19205</v>
       </c>
       <c r="Q29">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="R29">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="S29">
-        <v>0.8245320281641766</v>
+        <v>0.8246028338342636</v>
       </c>
       <c r="T29">
-        <v>0.0024408103490358</v>
+        <v>0.002928972418843</v>
       </c>
       <c r="U29">
         <v>0.9997917642771618</v>
       </c>
       <c r="V29">
-        <v>11.72138149865858</v>
+        <v>14.06565779839029</v>
       </c>
       <c r="W29">
-        <v>0.997766960375182</v>
+        <v>0.9972786966314212</v>
       </c>
       <c r="X29">
-        <v>0.4304618966267685</v>
+        <v>0.485129064987007</v>
       </c>
       <c r="Y29">
-        <v>0.892116841909203</v>
+        <v>0.9052291176155008</v>
       </c>
       <c r="Z29">
-        <v>0.8195935565819397</v>
+        <v>0.8196649120390536</v>
       </c>
       <c r="AA29">
-        <v>0.8293634586696055</v>
+        <v>0.8294336820052186</v>
       </c>
       <c r="AB29">
-        <v>0.0013261336552317</v>
+        <v>0.0016760531941873</v>
       </c>
       <c r="AC29">
-        <v>0.0044882136180963</v>
+        <v>0.0051137031080607</v>
       </c>
       <c r="AD29">
         <v>0.9994646215882148</v>
@@ -12160,16 +12062,16 @@
         <v>0.9999190227990148</v>
       </c>
       <c r="AF29">
-        <v>3.677800100424876</v>
+        <v>4.538490654515425</v>
       </c>
       <c r="AG29">
-        <v>37.35678407894533</v>
+        <v>43.59218611689337</v>
       </c>
       <c r="AH29">
-        <v>0.9962431192128968</v>
+        <v>0.9956124283895768</v>
       </c>
       <c r="AI29">
-        <v>0.9992931323860756</v>
+        <v>0.9989477535586764</v>
       </c>
       <c r="AJ29">
         <v>1</v>
@@ -12177,109 +12079,109 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30">
-        <v>1.097274805398675</v>
+        <v>1.096905055734933</v>
       </c>
       <c r="F30">
-        <v>1.02395667107263</v>
+        <v>1.047603610559692</v>
       </c>
       <c r="G30">
-        <v>1.128280371596351</v>
+        <v>1.149616852559418</v>
       </c>
       <c r="H30">
-        <v>0.0009610999982017</v>
+        <v>0.000133331066208</v>
       </c>
       <c r="I30">
-        <v>0.0069717888758444</v>
+        <v>0.0019361173135284</v>
       </c>
       <c r="J30">
-        <v>0.4392226991782008</v>
+        <v>0.137464329260522</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M30">
         <v>23306</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>19207</v>
+        <v>19201</v>
       </c>
       <c r="Q30">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="R30">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="S30">
-        <v>0.8245470936721903</v>
+        <v>0.8244310863031344</v>
       </c>
       <c r="T30">
-        <v>0.0024408103490358</v>
+        <v>0.0019526482792287</v>
       </c>
       <c r="U30">
-        <v>0.9998958821385808</v>
+        <v>0.9995835285543236</v>
       </c>
       <c r="V30">
-        <v>23.44276299730465</v>
+        <v>4.68855259946343</v>
       </c>
       <c r="W30">
-        <v>0.9976630641956252</v>
+        <v>0.9984631831261026</v>
       </c>
       <c r="X30">
-        <v>0.5190777942769059</v>
+        <v>0.2658613472774175</v>
       </c>
       <c r="Y30">
-        <v>0.958613275997822</v>
+        <v>0.7341386527225824</v>
       </c>
       <c r="Z30">
-        <v>0.8196089989591487</v>
+        <v>0.8194913115130774</v>
       </c>
       <c r="AA30">
-        <v>0.8293781515296438</v>
+        <v>0.8292638441216477</v>
       </c>
       <c r="AB30">
-        <v>0.0013261336552317</v>
+        <v>0.0009895847529036001</v>
       </c>
       <c r="AC30">
-        <v>0.0044882136180963</v>
+        <v>0.0038493534915045</v>
       </c>
       <c r="AD30">
-        <v>0.9996203897575818</v>
+        <v>0.9991782985407024</v>
       </c>
       <c r="AE30">
-        <v>0.9999714487121196</v>
+        <v>0.9997889576815828</v>
       </c>
       <c r="AF30">
-        <v>5.138062867100002</v>
+        <v>1.76062992227045</v>
       </c>
       <c r="AG30">
-        <v>106.9592083948124</v>
+        <v>12.48560256751024</v>
       </c>
       <c r="AH30">
-        <v>0.9961461849835054</v>
+        <v>0.997081364548848</v>
       </c>
       <c r="AI30">
-        <v>0.999182253231924</v>
+        <v>0.9998469167151592</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -12287,109 +12189,109 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>1.095636692101154</v>
+        <v>1.090262916876286</v>
       </c>
       <c r="F31">
-        <v>1.025176399344871</v>
+        <v>1.0195696902463</v>
       </c>
       <c r="G31">
-        <v>1.141899343051222</v>
+        <v>1.112017464036606</v>
       </c>
       <c r="H31">
-        <v>0.0002373958105616</v>
+        <v>0.0006107903883699</v>
       </c>
       <c r="I31">
-        <v>0.0020469789703147</v>
+        <v>0.0069969432267707</v>
       </c>
       <c r="J31">
-        <v>0.1084898854266821</v>
+        <v>0.6297248904093711</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>23306</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>19205</v>
+        <v>19207</v>
       </c>
       <c r="Q31">
-        <v>4085</v>
+        <v>4091</v>
       </c>
       <c r="R31">
         <v>0.75</v>
       </c>
       <c r="S31">
-        <v>0.8246028338342636</v>
+        <v>0.824405528371534</v>
       </c>
       <c r="T31">
-        <v>0.002928972418843</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U31">
-        <v>0.9997917642771618</v>
+        <v>0.9998958821385808</v>
       </c>
       <c r="V31">
-        <v>14.06565779839029</v>
+        <v>14.06565779838279</v>
       </c>
       <c r="W31">
-        <v>0.9972786966314212</v>
+        <v>0.998639489998606</v>
       </c>
       <c r="X31">
-        <v>0.485129064987007</v>
+        <v>0.3589167857050852</v>
       </c>
       <c r="Y31">
-        <v>0.9052291176155008</v>
+        <v>0.941436390491302</v>
       </c>
       <c r="Z31">
-        <v>0.8196649120390536</v>
+        <v>0.8194663354388473</v>
       </c>
       <c r="AA31">
-        <v>0.8294336820052186</v>
+        <v>0.8292377495052702</v>
       </c>
       <c r="AB31">
-        <v>0.0016760531941873</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC31">
-        <v>0.0051137031080607</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD31">
-        <v>0.9994646215882148</v>
+        <v>0.9996203897575818</v>
       </c>
       <c r="AE31">
-        <v>0.9999190227990148</v>
+        <v>0.9999714487121196</v>
       </c>
       <c r="AF31">
-        <v>4.538490654515425</v>
+        <v>2.839717834592593</v>
       </c>
       <c r="AG31">
-        <v>43.59218611689337</v>
+        <v>69.66985483245752</v>
       </c>
       <c r="AH31">
-        <v>0.9956124283895768</v>
+        <v>0.9974602170611904</v>
       </c>
       <c r="AI31">
-        <v>0.9989477535586764</v>
+        <v>0.999820157161713</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -12400,216 +12302,210 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32">
-        <v>1.08984917396415</v>
+        <v>1.048902762685927</v>
       </c>
       <c r="F32">
-        <v>1.034711663997639</v>
+        <v>1.000009605421958</v>
       </c>
       <c r="G32">
-        <v>1.139905254092672</v>
+        <v>1.062762711987455</v>
       </c>
       <c r="H32">
-        <v>0.0004629833745717</v>
+        <v>0.0002896533422299</v>
       </c>
       <c r="I32">
-        <v>0.0036479896927463</v>
+        <v>0.0039293762610407</v>
       </c>
       <c r="J32">
-        <v>0.2115834021792906</v>
+        <v>0.2986325958390948</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>23306</v>
       </c>
       <c r="N32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>19201</v>
+        <v>19209</v>
       </c>
       <c r="Q32">
-        <v>4089</v>
+        <v>4091</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0.8244310863031344</v>
+        <v>0.8244206008583691</v>
       </c>
       <c r="T32">
-        <v>0.0019526482792287</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U32">
-        <v>0.9995835285543236</v>
-      </c>
-      <c r="V32">
-        <v>4.68855259946343</v>
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>78</v>
       </c>
       <c r="W32">
-        <v>0.9984631831261026</v>
+        <v>0.9985355137905784</v>
       </c>
       <c r="X32">
-        <v>0.2658613472774175</v>
+        <v>0.5005264873047524</v>
       </c>
       <c r="Y32">
-        <v>0.7341386527225824</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.8194913115130774</v>
+        <v>0.8194817847126817</v>
       </c>
       <c r="AA32">
-        <v>0.8292638441216477</v>
+        <v>0.8292524494169916</v>
       </c>
       <c r="AB32">
-        <v>0.0009895847529036001</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC32">
-        <v>0.0038493534915045</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD32">
-        <v>0.9991782985407024</v>
+        <v>0.999800032552174</v>
       </c>
       <c r="AE32">
-        <v>0.9997889576815828</v>
-      </c>
-      <c r="AF32">
-        <v>1.76062992227045</v>
-      </c>
-      <c r="AG32">
-        <v>12.48560256751024</v>
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>78</v>
       </c>
       <c r="AH32">
-        <v>0.997081364548848</v>
+        <v>0.9973651862219296</v>
       </c>
       <c r="AI32">
-        <v>0.9998469167151592</v>
+        <v>0.9997072146441954</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>1.066075643797324</v>
+        <v>1.048098632392565</v>
       </c>
       <c r="F33">
-        <v>1.026394500284306</v>
+        <v>1.000011934313953</v>
       </c>
       <c r="G33">
-        <v>1.107593856981375</v>
+        <v>1.060341131980721</v>
       </c>
       <c r="H33">
-        <v>0.0006340000009833</v>
+        <v>0.0001188393624321</v>
       </c>
       <c r="I33">
-        <v>0.0073444269776829</v>
+        <v>0.001884975117962</v>
       </c>
       <c r="J33">
-        <v>0.6536540010137836</v>
+        <v>0.1225233826675308</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="M33">
         <v>23306</v>
       </c>
       <c r="N33">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>19015</v>
+        <v>19209</v>
       </c>
       <c r="Q33">
-        <v>4013</v>
+        <v>4091</v>
       </c>
       <c r="R33">
-        <v>0.302158273381295</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0.8257338891783915</v>
+        <v>0.8244206008583691</v>
       </c>
       <c r="T33">
-        <v>0.0205028069319013</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U33">
-        <v>0.9899005674423448</v>
-      </c>
-      <c r="V33">
-        <v>2.030094939973689</v>
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>78</v>
       </c>
       <c r="W33">
-        <v>0.9894904854927744</v>
+        <v>0.9985355137905784</v>
       </c>
       <c r="X33">
-        <v>0.2509688357584906</v>
+        <v>0.5005264873047524</v>
       </c>
       <c r="Y33">
-        <v>0.358787436256921</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8207799637885783</v>
+        <v>0.8194817847126817</v>
       </c>
       <c r="AA33">
-        <v>0.8305791454589891</v>
+        <v>0.8292524494169916</v>
       </c>
       <c r="AB33">
-        <v>0.0165904398769455</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC33">
-        <v>0.0253140414664212</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD33">
-        <v>0.9883852965544152</v>
+        <v>0.999800032552174</v>
       </c>
       <c r="AE33">
-        <v>0.9912199099979546</v>
-      </c>
-      <c r="AF33">
-        <v>1.575081375280271</v>
-      </c>
-      <c r="AG33">
-        <v>2.61655399523306</v>
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>78</v>
       </c>
       <c r="AH33">
-        <v>0.9848951192226242</v>
+        <v>0.9973651862219296</v>
       </c>
       <c r="AI33">
-        <v>0.9941072930217396</v>
+        <v>0.9997072146441954</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -12617,34 +12513,34 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34">
-        <v>1.048902762685927</v>
+        <v>1.042697105710951</v>
       </c>
       <c r="F34">
-        <v>1.00001394961017</v>
+        <v>1.000019718010124</v>
       </c>
       <c r="G34">
-        <v>1.062921456283834</v>
+        <v>1.057659037419074</v>
       </c>
       <c r="H34">
-        <v>0.0001580259384005</v>
+        <v>0.0008994797655814</v>
       </c>
       <c r="I34">
-        <v>0.0023959520954549</v>
+        <v>0.0097617225085736</v>
       </c>
       <c r="J34">
-        <v>0.1629247424909398</v>
+        <v>0.927363638314492</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -12680,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W34">
         <v>0.9985355137905784</v>
@@ -12710,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="AG34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH34">
         <v>0.9973651862219296</v>
@@ -12719,39 +12615,39 @@
         <v>0.9997072146441954</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>1.048098632392565</v>
+        <v>1.038109029025833</v>
       </c>
       <c r="F35">
-        <v>1.000010919919186</v>
+        <v>1.000019424594803</v>
       </c>
       <c r="G35">
-        <v>1.060985807009488</v>
+        <v>1.048994508082202</v>
       </c>
       <c r="H35">
-        <v>0.0001397763130577</v>
+        <v>0.0001859982325452</v>
       </c>
       <c r="I35">
-        <v>0.0021834754357967</v>
+        <v>0.0024273946551159</v>
       </c>
       <c r="J35">
-        <v>0.1441093787625885</v>
+        <v>0.191764177754163</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -12787,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W35">
         <v>0.9985355137905784</v>
@@ -12817,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="AG35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH35">
         <v>0.9973651862219296</v>
@@ -12826,111 +12722,111 @@
         <v>0.9997072146441954</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E36">
-        <v>1.041812399819348</v>
+        <v>1.037642617196716</v>
       </c>
       <c r="F36">
-        <v>1.00003113008371</v>
+        <v>1.012149147531806</v>
       </c>
       <c r="G36">
-        <v>1.054374799483791</v>
+        <v>1.050085285406015</v>
       </c>
       <c r="H36">
-        <v>0.0004036873817013</v>
+        <v>3.320774435004567E-05</v>
       </c>
       <c r="I36">
-        <v>0.0032365812883771</v>
+        <v>0.000534956006639</v>
       </c>
       <c r="J36">
-        <v>0.1844851334374957</v>
+        <v>0.034237184424897</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>23306</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>19209</v>
+        <v>19208</v>
       </c>
       <c r="Q36">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S36">
-        <v>0.8244206008583691</v>
+        <v>0.8244484505107734</v>
       </c>
       <c r="T36">
-        <v>0.0014644862094215</v>
+        <v>0.0017085672443251</v>
       </c>
       <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36" t="s">
-        <v>80</v>
+        <v>0.9999479410692904</v>
+      </c>
+      <c r="V36">
+        <v>32.81986819622651</v>
       </c>
       <c r="W36">
-        <v>0.9985355137905784</v>
+        <v>0.9983434054458432</v>
       </c>
       <c r="X36">
-        <v>0.5005264873047524</v>
+        <v>0.4681786160314102</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0.9823511482631704</v>
       </c>
       <c r="Z36">
-        <v>0.8194817847126817</v>
+        <v>0.8195097203643582</v>
       </c>
       <c r="AA36">
-        <v>0.8292524494169916</v>
+        <v>0.829280194704785</v>
       </c>
       <c r="AB36">
-        <v>0.0006712072339467</v>
+        <v>0.0008277137196945</v>
       </c>
       <c r="AC36">
-        <v>0.0031923219815414</v>
+        <v>0.0035235200102536</v>
       </c>
       <c r="AD36">
-        <v>0.999800032552174</v>
+        <v>0.9997051244390388</v>
       </c>
       <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>80</v>
+        <v>0.9999908110718992</v>
+      </c>
+      <c r="AF36">
+        <v>4.038636395250149</v>
+      </c>
+      <c r="AG36">
+        <v>266.7097611670394</v>
       </c>
       <c r="AH36">
-        <v>0.9973651862219296</v>
+        <v>0.9970753644057836</v>
       </c>
       <c r="AI36">
-        <v>0.9997072146441954</v>
+        <v>0.9996130591303796</v>
       </c>
       <c r="AJ36">
         <v>1</v>
@@ -12938,34 +12834,31 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E37">
-        <v>1.037429002618232</v>
+        <v>1.036403758922643</v>
       </c>
       <c r="F37">
-        <v>1.000027529622607</v>
+        <v>1.000023458798866</v>
       </c>
       <c r="G37">
-        <v>1.048451890115432</v>
+        <v>1.046516056733329</v>
       </c>
       <c r="H37">
-        <v>9.062112731034636E-05</v>
+        <v>0.0001424370689601</v>
       </c>
       <c r="I37">
-        <v>0.0008627886496005</v>
+        <v>0.0020396196958039</v>
       </c>
       <c r="J37">
-        <v>0.0414138551808282</v>
+        <v>0.1468526180978833</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -12977,67 +12870,70 @@
         <v>23306</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>19209</v>
+        <v>19208</v>
       </c>
       <c r="Q37">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S37">
-        <v>0.8244206008583691</v>
+        <v>0.8243776824034335</v>
       </c>
       <c r="T37">
-        <v>0.0014644862094215</v>
+        <v>0.0012204051745179</v>
       </c>
       <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37" t="s">
-        <v>80</v>
+        <v>0.9999479410692904</v>
+      </c>
+      <c r="V37">
+        <v>23.44276299730465</v>
       </c>
       <c r="W37">
-        <v>0.9985355137905784</v>
+        <v>0.998831592930169</v>
       </c>
       <c r="X37">
-        <v>0.5005264873047524</v>
+        <v>0.3552484667432382</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0.9784358581265966</v>
       </c>
       <c r="Z37">
-        <v>0.8194817847126817</v>
+        <v>0.8194384036003803</v>
       </c>
       <c r="AA37">
-        <v>0.8292524494169916</v>
+        <v>0.8292100077704452</v>
       </c>
       <c r="AB37">
-        <v>0.0006712072339467</v>
+        <v>0.0005212695944352001</v>
       </c>
       <c r="AC37">
-        <v>0.0031923219815414</v>
+        <v>0.0028545551065929</v>
       </c>
       <c r="AD37">
-        <v>0.999800032552174</v>
+        <v>0.9997051244390388</v>
       </c>
       <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>80</v>
+        <v>0.9999908110718992</v>
+      </c>
+      <c r="AF37">
+        <v>2.739244912433137</v>
+      </c>
+      <c r="AG37">
+        <v>200.625776268996</v>
       </c>
       <c r="AH37">
-        <v>0.9973651862219296</v>
+        <v>0.997758152205485</v>
       </c>
       <c r="AI37">
-        <v>0.9997072146441954</v>
+        <v>0.9999061885188716</v>
       </c>
       <c r="AJ37">
         <v>1</v>
@@ -13050,7 +12946,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13171,22 +13067,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>3.795412937981328</v>
       </c>
       <c r="F2">
-        <v>3.613354598211441</v>
+        <v>3.614254274189033</v>
       </c>
       <c r="G2">
-        <v>4.018180525551207</v>
+        <v>4.006497788121469</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13281,22 +13177,22 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>3.215824410656593</v>
+        <v>3.260363528832141</v>
       </c>
       <c r="F3">
-        <v>3.07266076574769</v>
+        <v>3.111390413694019</v>
       </c>
       <c r="G3">
-        <v>3.370324508963634</v>
+        <v>3.431638898373686</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13391,31 +13287,31 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>2.31083659307502</v>
+        <v>2.313617473617036</v>
       </c>
       <c r="F4">
-        <v>2.212931043470781</v>
+        <v>2.233882811021256</v>
       </c>
       <c r="G4">
-        <v>2.434439738757761</v>
+        <v>2.423910635342826</v>
       </c>
       <c r="H4">
-        <v>1.803732711283723E-237</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.992679220511821E-235</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.998535844102365E-234</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -13493,7 +13389,7 @@
         <v>0.8390455695817471</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -13501,31 +13397,31 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>2.308049595634003</v>
+        <v>2.31083659307502</v>
       </c>
       <c r="F5">
-        <v>2.218608967054373</v>
+        <v>2.217569663704988</v>
       </c>
       <c r="G5">
-        <v>2.417739195557002</v>
+        <v>2.435829571587068</v>
       </c>
       <c r="H5">
-        <v>1.038671625919354E-306</v>
+        <v>1.385897037998448E-246</v>
       </c>
       <c r="I5">
-        <v>2.373364665225724E-304</v>
+        <v>7.6778695905114E-244</v>
       </c>
       <c r="J5">
-        <v>4.746729330451448E-304</v>
+        <v>1.53557391810228E-243</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -13603,7 +13499,7 @@
         <v>0.8390455695817471</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -13611,31 +13507,31 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1.910342908510565</v>
       </c>
       <c r="F6">
-        <v>1.840054677486986</v>
+        <v>1.843419204997045</v>
       </c>
       <c r="G6">
-        <v>2.001767023109222</v>
+        <v>1.996095554240319</v>
       </c>
       <c r="H6">
-        <v>3.214387646322301E-190</v>
+        <v>1.018819920558096E-206</v>
       </c>
       <c r="I6">
-        <v>1.187180504041703E-187</v>
+        <v>3.762841573261233E-204</v>
       </c>
       <c r="J6">
-        <v>3.56154151212511E-187</v>
+        <v>1.12885247197837E-203</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -13721,31 +13617,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>1.742798785823047</v>
+        <v>1.769067684817553</v>
       </c>
       <c r="F7">
-        <v>1.675576552776288</v>
+        <v>1.694099658885091</v>
       </c>
       <c r="G7">
-        <v>1.825167501197156</v>
+        <v>1.8415284258778</v>
       </c>
       <c r="H7">
-        <v>9.010465730201978E-143</v>
+        <v>2.35690335479142E-151</v>
       </c>
       <c r="I7">
-        <v>1.372594279567435E-140</v>
+        <v>1.305724458554447E-148</v>
       </c>
       <c r="J7">
-        <v>4.117782838702304E-140</v>
+        <v>2.611448917108893E-148</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -13831,31 +13727,31 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1.563981481333701</v>
       </c>
       <c r="F8">
-        <v>1.50279319212274</v>
+        <v>1.501802536959455</v>
       </c>
       <c r="G8">
-        <v>1.632705305191841</v>
+        <v>1.628859259347891</v>
       </c>
       <c r="H8">
-        <v>3.283549285166056E-99</v>
+        <v>4.59374568894641E-107</v>
       </c>
       <c r="I8">
-        <v>9.095431519909977E-97</v>
+        <v>1.272467555838156E-104</v>
       </c>
       <c r="J8">
-        <v>3.63817260796399E-96</v>
+        <v>5.089870223352622E-104</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -13941,31 +13837,31 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1.557364308875422</v>
       </c>
       <c r="F9">
-        <v>1.492450438583723</v>
+        <v>1.488382647510772</v>
       </c>
       <c r="G9">
-        <v>1.635972299014969</v>
+        <v>1.63159939874547</v>
       </c>
       <c r="H9">
-        <v>1.21995133350553E-81</v>
+        <v>3.439601623441803E-82</v>
       </c>
       <c r="I9">
-        <v>1.931008682177325E-79</v>
+        <v>5.444397998247882E-80</v>
       </c>
       <c r="J9">
-        <v>1.351706077524127E-78</v>
+        <v>3.811078598773517E-79</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -14051,31 +13947,31 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>1.530650258584678</v>
+        <v>1.545136020851549</v>
       </c>
       <c r="F10">
-        <v>1.469969485416289</v>
+        <v>1.476190526690613</v>
       </c>
       <c r="G10">
-        <v>1.601742132278991</v>
+        <v>1.621323989752799</v>
       </c>
       <c r="H10">
-        <v>2.948024882279215E-85</v>
+        <v>7.045487311298274E-77</v>
       </c>
       <c r="I10">
-        <v>2.694494742403203E-83</v>
+        <v>1.951599985229622E-74</v>
       </c>
       <c r="J10">
-        <v>1.347247371201601E-82</v>
+        <v>7.806399940918487E-74</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -14161,31 +14057,31 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>1.495606276104197</v>
       </c>
       <c r="F11">
-        <v>1.442258109131078</v>
+        <v>1.449571194251891</v>
       </c>
       <c r="G11">
-        <v>1.563775815082944</v>
+        <v>1.563041379758375</v>
       </c>
       <c r="H11">
-        <v>1.466812240181293E-87</v>
+        <v>8.236337400271907E-97</v>
       </c>
       <c r="I11">
-        <v>2.708713270201454E-85</v>
+        <v>1.825172367900254E-94</v>
       </c>
       <c r="J11">
-        <v>1.625227962120872E-84</v>
+        <v>9.125861839501272E-94</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -14271,31 +14167,31 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>1.466616976720334</v>
+        <v>1.477954580117326</v>
       </c>
       <c r="F12">
-        <v>1.410422317135081</v>
+        <v>1.422155404697492</v>
       </c>
       <c r="G12">
-        <v>1.528436551027474</v>
+        <v>1.535429554332769</v>
       </c>
       <c r="H12">
-        <v>6.030883305672471E-77</v>
+        <v>1.856103303779132E-82</v>
       </c>
       <c r="I12">
-        <v>4.593522784487199E-75</v>
+        <v>6.855208201957594E-80</v>
       </c>
       <c r="J12">
-        <v>2.756113670692319E-74</v>
+        <v>2.056562460587278E-79</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -14381,31 +14277,31 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>1.445750280084549</v>
+        <v>1.431518678764577</v>
       </c>
       <c r="F13">
-        <v>1.395225728363068</v>
+        <v>1.380263021819725</v>
       </c>
       <c r="G13">
-        <v>1.507510590840569</v>
+        <v>1.500335452035599</v>
       </c>
       <c r="H13">
-        <v>9.436161370779644E-77</v>
+        <v>2.925784688585859E-64</v>
       </c>
       <c r="I13">
-        <v>6.160465352066138E-75</v>
+        <v>4.631099192790186E-62</v>
       </c>
       <c r="J13">
-        <v>4.312325746446297E-74</v>
+        <v>3.24176943495313E-61</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -14491,31 +14387,31 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1.378901448579516</v>
       </c>
       <c r="F14">
-        <v>1.333187030489162</v>
+        <v>1.33322146473495</v>
       </c>
       <c r="G14">
-        <v>1.437248689410308</v>
+        <v>1.437622610096149</v>
       </c>
       <c r="H14">
-        <v>2.042117921377673E-64</v>
+        <v>4.97820380109894E-62</v>
       </c>
       <c r="I14">
-        <v>2.828333321108077E-62</v>
+        <v>6.894812264522032E-60</v>
       </c>
       <c r="J14">
-        <v>2.262666656886461E-61</v>
+        <v>5.515849811617628E-59</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -14601,31 +14497,31 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>1.35187254985455</v>
+        <v>1.364011259849248</v>
       </c>
       <c r="F15">
-        <v>1.307504312062819</v>
+        <v>1.323571789310495</v>
       </c>
       <c r="G15">
-        <v>1.407440840703956</v>
+        <v>1.418232107848431</v>
       </c>
       <c r="H15">
-        <v>1.334047461933986E-57</v>
+        <v>1.156173999612841E-65</v>
       </c>
       <c r="I15">
-        <v>7.620746126297891E-56</v>
+        <v>2.135067985951712E-63</v>
       </c>
       <c r="J15">
-        <v>6.096596901038314E-55</v>
+        <v>1.281040791571027E-62</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -14711,31 +14607,31 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>1.259233678723027</v>
       </c>
       <c r="F16">
-        <v>1.217332827656269</v>
+        <v>1.212212590205435</v>
       </c>
       <c r="G16">
-        <v>1.30150885368664</v>
+        <v>1.30429859653047</v>
       </c>
       <c r="H16">
-        <v>1.004521518867429E-39</v>
+        <v>7.079457856734956E-35</v>
       </c>
       <c r="I16">
-        <v>1.236677603227901E-37</v>
+        <v>8.715599228069257E-33</v>
       </c>
       <c r="J16">
-        <v>1.113009842905111E-36</v>
+        <v>7.844039305262331E-32</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -14818,222 +14714,222 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <v>1.237989022588344</v>
+        <v>1.229656657343916</v>
       </c>
       <c r="F17">
-        <v>1.198309561774153</v>
+        <v>1.183205151553224</v>
       </c>
       <c r="G17">
-        <v>1.278908099541374</v>
+        <v>1.284975668471676</v>
       </c>
       <c r="H17">
-        <v>9.656655311306536E-32</v>
+        <v>6.344647769560787E-23</v>
       </c>
       <c r="I17">
-        <v>4.903434974741208E-30</v>
+        <v>6.39079066243032E-21</v>
       </c>
       <c r="J17">
-        <v>4.413091477267087E-29</v>
+        <v>7.029869728673352E-20</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17">
         <v>23306</v>
       </c>
       <c r="N17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P17">
-        <v>19205</v>
+        <v>19202</v>
       </c>
       <c r="Q17">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="R17">
-        <v>0.9047619047619048</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="S17">
-        <v>0.8255244154057771</v>
+        <v>0.8255374032674119</v>
       </c>
       <c r="T17">
-        <v>0.0092750793263363</v>
+        <v>0.0095191603612399</v>
       </c>
       <c r="U17">
-        <v>0.9997917642771618</v>
+        <v>0.999635587485033</v>
       </c>
       <c r="V17">
-        <v>44.54124969490258</v>
+        <v>26.12193591129028</v>
       </c>
       <c r="W17">
-        <v>0.9909312679625308</v>
+        <v>0.9908419148328792</v>
       </c>
       <c r="X17">
-        <v>0.7746580584918282</v>
+        <v>0.7136649341919113</v>
       </c>
       <c r="Y17">
-        <v>0.9633068131370024</v>
+        <v>0.925673367575537</v>
       </c>
       <c r="Z17">
-        <v>0.8205936829017821</v>
+        <v>0.8206063831552854</v>
       </c>
       <c r="AA17">
-        <v>0.8303476502936356</v>
+        <v>0.8303609029885619</v>
       </c>
       <c r="AB17">
-        <v>0.0067644343531485</v>
+        <v>0.0069707756182469</v>
       </c>
       <c r="AC17">
-        <v>0.012705639325059</v>
+        <v>0.0129870025744206</v>
       </c>
       <c r="AD17">
-        <v>0.9994646215882148</v>
+        <v>0.9992478811067744</v>
       </c>
       <c r="AE17">
-        <v>0.9999190227990148</v>
+        <v>0.9998234721567468</v>
       </c>
       <c r="AF17">
-        <v>15.90517842572119</v>
+        <v>11.69199714168685</v>
       </c>
       <c r="AG17">
-        <v>124.7344022985207</v>
+        <v>58.36090511181143</v>
       </c>
       <c r="AH17">
-        <v>0.9879926261312958</v>
+        <v>0.987859873427536</v>
       </c>
       <c r="AI17">
-        <v>0.9938786503608348</v>
+        <v>0.9938329580928196</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>1.229656657343916</v>
+        <v>1.223375065821573</v>
       </c>
       <c r="F18">
-        <v>1.180458970149957</v>
+        <v>1.184509494090459</v>
       </c>
       <c r="G18">
-        <v>1.284973334500721</v>
+        <v>1.268202396487493</v>
       </c>
       <c r="H18">
-        <v>1.967971539722796E-21</v>
+        <v>5.381079777001315E-28</v>
       </c>
       <c r="I18">
-        <v>1.982284060011689E-19</v>
+        <v>7.452795491146822E-26</v>
       </c>
       <c r="J18">
-        <v>2.180512466012857E-18</v>
+        <v>5.962236392917458E-25</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M18">
         <v>23306</v>
       </c>
       <c r="N18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>19202</v>
+        <v>19205</v>
       </c>
       <c r="Q18">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="R18">
-        <v>0.8478260869565217</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="S18">
-        <v>0.8255374032674119</v>
+        <v>0.8255244154057771</v>
       </c>
       <c r="T18">
-        <v>0.0095191603612399</v>
+        <v>0.0092750793263363</v>
       </c>
       <c r="U18">
-        <v>0.999635587485033</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V18">
-        <v>26.12193591129028</v>
+        <v>44.54124969490258</v>
       </c>
       <c r="W18">
-        <v>0.9908419148328792</v>
+        <v>0.9909312679625308</v>
       </c>
       <c r="X18">
-        <v>0.7136649341919113</v>
+        <v>0.7746580584918282</v>
       </c>
       <c r="Y18">
-        <v>0.925673367575537</v>
+        <v>0.9633068131370024</v>
       </c>
       <c r="Z18">
-        <v>0.8206063831552854</v>
+        <v>0.8205936829017821</v>
       </c>
       <c r="AA18">
-        <v>0.8303609029885619</v>
+        <v>0.8303476502936356</v>
       </c>
       <c r="AB18">
-        <v>0.0069707756182469</v>
+        <v>0.0067644343531485</v>
       </c>
       <c r="AC18">
-        <v>0.0129870025744206</v>
+        <v>0.012705639325059</v>
       </c>
       <c r="AD18">
-        <v>0.9992478811067744</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE18">
-        <v>0.9998234721567468</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF18">
-        <v>11.69199714168685</v>
+        <v>15.90517842572119</v>
       </c>
       <c r="AG18">
-        <v>58.36090511181143</v>
+        <v>124.7344022985207</v>
       </c>
       <c r="AH18">
-        <v>0.987859873427536</v>
+        <v>0.9879926261312958</v>
       </c>
       <c r="AI18">
-        <v>0.9938329580928196</v>
+        <v>0.9938786503608348</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -15041,31 +14937,31 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>1.212907250803182</v>
+        <v>1.215840720134052</v>
       </c>
       <c r="F19">
-        <v>1.166394615493598</v>
+        <v>1.168761952428651</v>
       </c>
       <c r="G19">
-        <v>1.263692372984625</v>
+        <v>1.271365908705867</v>
       </c>
       <c r="H19">
-        <v>9.111768857396131E-21</v>
+        <v>3.577937495901916E-19</v>
       </c>
       <c r="I19">
-        <v>4.164078367830034E-19</v>
+        <v>3.964354745459322E-17</v>
       </c>
       <c r="J19">
-        <v>4.164078367830033E-18</v>
+        <v>3.964354745459322E-16</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -15151,31 +15047,31 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>1.180784143476595</v>
+        <v>1.191975253094743</v>
       </c>
       <c r="F20">
-        <v>1.134138205415536</v>
+        <v>1.137747657664677</v>
       </c>
       <c r="G20">
-        <v>1.237717604448722</v>
+        <v>1.250001545794914</v>
       </c>
       <c r="H20">
-        <v>2.804485806610976E-14</v>
+        <v>1.677171577007096E-13</v>
       </c>
       <c r="I20">
-        <v>9.154642954437257E-13</v>
+        <v>1.161441317077414E-11</v>
       </c>
       <c r="J20">
-        <v>1.281650013621216E-11</v>
+        <v>1.858306107323861E-10</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -15261,31 +15157,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1.148111129335675</v>
       </c>
       <c r="F21">
-        <v>1.099915065015924</v>
+        <v>1.101708178411245</v>
       </c>
       <c r="G21">
-        <v>1.194669944935681</v>
+        <v>1.197619052731812</v>
       </c>
       <c r="H21">
-        <v>1.229879042466904E-10</v>
+        <v>1.040785614696639E-10</v>
       </c>
       <c r="I21">
-        <v>7.570588772518501E-09</v>
+        <v>6.406613672688201E-09</v>
       </c>
       <c r="J21">
-        <v>1.36270597905333E-07</v>
+        <v>1.153190461083877E-07</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -15371,31 +15267,31 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>1.144246777241672</v>
       </c>
       <c r="F22">
-        <v>1.034188582055724</v>
+        <v>1.023873397434938</v>
       </c>
       <c r="G22">
-        <v>1.19521409787315</v>
+        <v>1.197449714435009</v>
       </c>
       <c r="H22">
-        <v>1.647251636136937E-05</v>
+        <v>0.0002182076992343</v>
       </c>
       <c r="I22">
-        <v>0.0003443688326112</v>
+        <v>0.003139923775995</v>
       </c>
       <c r="J22">
-        <v>0.0182515481283972</v>
+        <v>0.2417741307516187</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -15481,31 +15377,31 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>1.137470411625678</v>
       </c>
       <c r="F23">
-        <v>1.075460152637267</v>
+        <v>1.079573075066695</v>
       </c>
       <c r="G23">
-        <v>1.187758749768979</v>
+        <v>1.18884325958692</v>
       </c>
       <c r="H23">
-        <v>2.743231422459616E-07</v>
+        <v>3.558409169963807E-08</v>
       </c>
       <c r="I23">
-        <v>1.048103591753536E-05</v>
+        <v>1.792144254690862E-06</v>
       </c>
       <c r="J23">
-        <v>0.0003039500416085</v>
+        <v>3.942717360319897E-05</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -15588,34 +15484,34 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>1.122009193291418</v>
+        <v>1.135432899575753</v>
       </c>
       <c r="F24">
-        <v>1.0827414545183</v>
+        <v>1.082427678446916</v>
       </c>
       <c r="G24">
-        <v>1.170939307595012</v>
+        <v>1.165131180870277</v>
       </c>
       <c r="H24">
-        <v>2.830066244397689E-09</v>
+        <v>1.389838048848231E-11</v>
       </c>
       <c r="I24">
-        <v>6.158763208046401E-08</v>
+        <v>8.555225322910225E-10</v>
       </c>
       <c r="J24">
-        <v>1.293340273689744E-06</v>
+        <v>1.53994055812384E-08</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -15627,70 +15523,70 @@
         <v>23306</v>
       </c>
       <c r="N24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P24">
-        <v>19204</v>
+        <v>19202</v>
       </c>
       <c r="Q24">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="R24">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="S24">
-        <v>0.8247015374044491</v>
+        <v>0.8246156488877437</v>
       </c>
       <c r="T24">
-        <v>0.0036612155235538</v>
+        <v>0.0031730534537466</v>
       </c>
       <c r="U24">
-        <v>0.9997397053464522</v>
+        <v>0.999635587485033</v>
       </c>
       <c r="V24">
-        <v>14.06565779838879</v>
+        <v>8.707311970430094</v>
       </c>
       <c r="W24">
-        <v>0.9965981936579908</v>
+        <v>0.9971903351841986</v>
       </c>
       <c r="X24">
-        <v>0.5169157012050689</v>
+        <v>0.4198017460741785</v>
       </c>
       <c r="Y24">
-        <v>0.8937409454927827</v>
+        <v>0.8265922419445324</v>
       </c>
       <c r="Z24">
-        <v>0.8197642526817812</v>
+        <v>0.8196774367204107</v>
       </c>
       <c r="AA24">
-        <v>0.829531697547202</v>
+        <v>0.8294467648112496</v>
       </c>
       <c r="AB24">
-        <v>0.0022197283046218</v>
+        <v>0.0018550466433378</v>
       </c>
       <c r="AC24">
-        <v>0.0060331415410062</v>
+        <v>0.0054224141733702</v>
       </c>
       <c r="AD24">
-        <v>0.9993907290013884</v>
+        <v>0.9992478811067744</v>
       </c>
       <c r="AE24">
-        <v>0.9998888183446052</v>
+        <v>0.9998234721567468</v>
       </c>
       <c r="AF24">
-        <v>5.114730807038924</v>
+        <v>3.476025005413966</v>
       </c>
       <c r="AG24">
-        <v>38.6809661671936</v>
+        <v>21.81148916716898</v>
       </c>
       <c r="AH24">
-        <v>0.9947360301760264</v>
+        <v>0.9954481063294864</v>
       </c>
       <c r="AI24">
-        <v>0.9984638431430036</v>
+        <v>0.9989356132801148</v>
       </c>
       <c r="AJ24">
         <v>1</v>
@@ -15698,254 +15594,254 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>1.119503558569665</v>
+        <v>1.120129015245045</v>
       </c>
       <c r="F25">
-        <v>1.075338062781538</v>
+        <v>1.065745025645369</v>
       </c>
       <c r="G25">
-        <v>1.166618135508137</v>
+        <v>1.175222701632307</v>
       </c>
       <c r="H25">
-        <v>4.866811727465173E-08</v>
+        <v>7.600433909342191E-07</v>
       </c>
       <c r="I25">
-        <v>2.451103360923369E-06</v>
+        <v>2.005066850369321E-05</v>
       </c>
       <c r="J25">
-        <v>5.392427394031412E-05</v>
+        <v>0.0008421280771550999</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M25">
         <v>23306</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>19205</v>
+        <v>19198</v>
       </c>
       <c r="Q25">
-        <v>4087</v>
+        <v>4080</v>
       </c>
       <c r="R25">
-        <v>0.7142857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="S25">
-        <v>0.8245320281641766</v>
+        <v>0.8247272102414297</v>
       </c>
       <c r="T25">
-        <v>0.0024408103490358</v>
+        <v>0.0041493775933609</v>
       </c>
       <c r="U25">
-        <v>0.9997917642771618</v>
+        <v>0.9994273517621948</v>
       </c>
       <c r="V25">
-        <v>11.72138149865858</v>
+        <v>7.245944926442429</v>
       </c>
       <c r="W25">
-        <v>0.997766960375182</v>
+        <v>0.9964212212631072</v>
       </c>
       <c r="X25">
-        <v>0.4304618966267685</v>
+        <v>0.4163167366300963</v>
       </c>
       <c r="Y25">
-        <v>0.892116841909203</v>
+        <v>0.7700419803489511</v>
       </c>
       <c r="Z25">
-        <v>0.8195935565819397</v>
+        <v>0.8197893452866185</v>
       </c>
       <c r="AA25">
-        <v>0.8293634586696055</v>
+        <v>0.8295579053300219</v>
       </c>
       <c r="AB25">
-        <v>0.0013261336552317</v>
+        <v>0.0025919905361006</v>
       </c>
       <c r="AC25">
-        <v>0.0044882136180963</v>
+        <v>0.0066362883384473</v>
       </c>
       <c r="AD25">
-        <v>0.9994646215882148</v>
+        <v>0.9989747513601708</v>
       </c>
       <c r="AE25">
-        <v>0.9999190227990148</v>
+        <v>0.999680213738406</v>
       </c>
       <c r="AF25">
-        <v>3.677800100424876</v>
+        <v>3.396478195071333</v>
       </c>
       <c r="AG25">
-        <v>37.35678407894533</v>
+        <v>15.45828203850256</v>
       </c>
       <c r="AH25">
-        <v>0.9962431192128968</v>
+        <v>0.9944249622791796</v>
       </c>
       <c r="AI25">
-        <v>0.9992931323860756</v>
+        <v>0.9984214876383232</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>1.117644273495658</v>
+        <v>1.119503558569665</v>
       </c>
       <c r="F26">
-        <v>1.067928285349194</v>
+        <v>1.075389063868425</v>
       </c>
       <c r="G26">
-        <v>1.164501862134465</v>
+        <v>1.168146991257388</v>
       </c>
       <c r="H26">
-        <v>3.549736583713862E-07</v>
+        <v>5.567841290451386E-07</v>
       </c>
       <c r="I26">
-        <v>5.407432062524117E-06</v>
+        <v>1.86944489388489E-05</v>
       </c>
       <c r="J26">
-        <v>0.0001622229618757</v>
+        <v>0.000616916814982</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M26">
         <v>23306</v>
       </c>
       <c r="N26">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>19198</v>
+        <v>19205</v>
       </c>
       <c r="Q26">
-        <v>4080</v>
+        <v>4087</v>
       </c>
       <c r="R26">
-        <v>0.6071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S26">
-        <v>0.8247272102414297</v>
+        <v>0.8245320281641766</v>
       </c>
       <c r="T26">
-        <v>0.0041493775933609</v>
+        <v>0.0024408103490358</v>
       </c>
       <c r="U26">
-        <v>0.9994273517621948</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V26">
-        <v>7.245944926442429</v>
+        <v>11.72138149865858</v>
       </c>
       <c r="W26">
-        <v>0.9964212212631072</v>
+        <v>0.997766960375182</v>
       </c>
       <c r="X26">
-        <v>0.4163167366300963</v>
+        <v>0.4304618966267685</v>
       </c>
       <c r="Y26">
-        <v>0.7700419803489511</v>
+        <v>0.892116841909203</v>
       </c>
       <c r="Z26">
-        <v>0.8197893452866185</v>
+        <v>0.8195935565819397</v>
       </c>
       <c r="AA26">
-        <v>0.8295579053300219</v>
+        <v>0.8293634586696055</v>
       </c>
       <c r="AB26">
-        <v>0.0025919905361006</v>
+        <v>0.0013261336552317</v>
       </c>
       <c r="AC26">
-        <v>0.0066362883384473</v>
+        <v>0.0044882136180963</v>
       </c>
       <c r="AD26">
-        <v>0.9989747513601708</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE26">
-        <v>0.999680213738406</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF26">
-        <v>3.396478195071333</v>
+        <v>3.677800100424876</v>
       </c>
       <c r="AG26">
-        <v>15.45828203850256</v>
+        <v>37.35678407894533</v>
       </c>
       <c r="AH26">
-        <v>0.9944249622791796</v>
+        <v>0.9962431192128968</v>
       </c>
       <c r="AI26">
-        <v>0.9984214876383232</v>
+        <v>0.9992931323860756</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>1.111015690062691</v>
+        <v>1.117558616226008</v>
       </c>
       <c r="F27">
-        <v>1.046809774168616</v>
+        <v>1.071807249388123</v>
       </c>
       <c r="G27">
-        <v>1.160443324708809</v>
+        <v>1.170245382687172</v>
       </c>
       <c r="H27">
-        <v>4.314926443155294E-05</v>
+        <v>6.987905561197917E-07</v>
       </c>
       <c r="I27">
-        <v>0.0004695050915528</v>
+        <v>1.888438868733486E-05</v>
       </c>
       <c r="J27">
-        <v>0.0197192138452196</v>
+        <v>0.0007742599361807</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -15957,70 +15853,70 @@
         <v>23306</v>
       </c>
       <c r="N27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>19202</v>
+        <v>19204</v>
       </c>
       <c r="Q27">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="R27">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="S27">
-        <v>0.8246156488877437</v>
+        <v>0.8247015374044491</v>
       </c>
       <c r="T27">
-        <v>0.0031730534537466</v>
+        <v>0.0036612155235538</v>
       </c>
       <c r="U27">
-        <v>0.999635587485033</v>
+        <v>0.9997397053464522</v>
       </c>
       <c r="V27">
-        <v>8.707311970430094</v>
+        <v>14.06565779838879</v>
       </c>
       <c r="W27">
-        <v>0.9971903351841986</v>
+        <v>0.9965981936579908</v>
       </c>
       <c r="X27">
-        <v>0.4198017460741785</v>
+        <v>0.5169157012050689</v>
       </c>
       <c r="Y27">
-        <v>0.8265922419445324</v>
+        <v>0.8937409454927827</v>
       </c>
       <c r="Z27">
-        <v>0.8196774367204107</v>
+        <v>0.8197642526817812</v>
       </c>
       <c r="AA27">
-        <v>0.8294467648112496</v>
+        <v>0.829531697547202</v>
       </c>
       <c r="AB27">
-        <v>0.0018550466433378</v>
+        <v>0.0022197283046218</v>
       </c>
       <c r="AC27">
-        <v>0.0054224141733702</v>
+        <v>0.0060331415410062</v>
       </c>
       <c r="AD27">
-        <v>0.9992478811067744</v>
+        <v>0.9993907290013884</v>
       </c>
       <c r="AE27">
-        <v>0.9998234721567468</v>
+        <v>0.9998888183446052</v>
       </c>
       <c r="AF27">
-        <v>3.476025005413966</v>
+        <v>5.114730807038924</v>
       </c>
       <c r="AG27">
-        <v>21.81148916716898</v>
+        <v>38.6809661671936</v>
       </c>
       <c r="AH27">
-        <v>0.9954481063294864</v>
+        <v>0.9947360301760264</v>
       </c>
       <c r="AI27">
-        <v>0.9989356132801148</v>
+        <v>0.9984638431430036</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -16028,109 +15924,109 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>1.108764896894138</v>
+        <v>1.100569293394987</v>
       </c>
       <c r="F28">
-        <v>1.019579162087498</v>
+        <v>1.056296386829574</v>
       </c>
       <c r="G28">
-        <v>1.12885121761502</v>
+        <v>1.154938620905542</v>
       </c>
       <c r="H28">
-        <v>4.392619824526338E-05</v>
+        <v>2.01774364062443E-05</v>
       </c>
       <c r="I28">
-        <v>0.0004562334681383</v>
+        <v>0.0003548666593352</v>
       </c>
       <c r="J28">
-        <v>0.0200742725980853</v>
+        <v>0.0223565995381186</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M28">
         <v>23306</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>19207</v>
+        <v>19205</v>
       </c>
       <c r="Q28">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="R28">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S28">
-        <v>0.824405528371534</v>
+        <v>0.8245320281641766</v>
       </c>
       <c r="T28">
-        <v>0.0014644862094215</v>
+        <v>0.0024408103490358</v>
       </c>
       <c r="U28">
-        <v>0.9998958821385808</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V28">
-        <v>14.06565779838279</v>
+        <v>11.72138149865858</v>
       </c>
       <c r="W28">
-        <v>0.998639489998606</v>
+        <v>0.997766960375182</v>
       </c>
       <c r="X28">
-        <v>0.3589167857050852</v>
+        <v>0.4304618966267685</v>
       </c>
       <c r="Y28">
-        <v>0.941436390491302</v>
+        <v>0.892116841909203</v>
       </c>
       <c r="Z28">
-        <v>0.8194663354388473</v>
+        <v>0.8195935565819397</v>
       </c>
       <c r="AA28">
-        <v>0.8292377495052702</v>
+        <v>0.8293634586696055</v>
       </c>
       <c r="AB28">
-        <v>0.0006712072339467</v>
+        <v>0.0013261336552317</v>
       </c>
       <c r="AC28">
-        <v>0.0031923219815414</v>
+        <v>0.0044882136180963</v>
       </c>
       <c r="AD28">
-        <v>0.9996203897575818</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE28">
-        <v>0.9999714487121196</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF28">
-        <v>2.839717834592593</v>
+        <v>3.677800100424876</v>
       </c>
       <c r="AG28">
-        <v>69.66985483245752</v>
+        <v>37.35678407894533</v>
       </c>
       <c r="AH28">
-        <v>0.9974602170611904</v>
+        <v>0.9962431192128968</v>
       </c>
       <c r="AI28">
-        <v>0.999820157161713</v>
+        <v>0.9992931323860756</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -16138,109 +16034,109 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>1.098126575591772</v>
+        <v>1.096790175201638</v>
       </c>
       <c r="F29">
-        <v>1.055039196323977</v>
+        <v>1.049869993848431</v>
       </c>
       <c r="G29">
-        <v>1.150530275841772</v>
+        <v>1.147118111781998</v>
       </c>
       <c r="H29">
-        <v>1.050105959123502E-05</v>
+        <v>4.328548826146068E-05</v>
       </c>
       <c r="I29">
-        <v>0.0001230508777742</v>
+        <v>0.0007052988381426</v>
       </c>
       <c r="J29">
-        <v>0.0047989842331944</v>
+        <v>0.0479603209936984</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M29">
         <v>23306</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P29">
-        <v>19205</v>
+        <v>19201</v>
       </c>
       <c r="Q29">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="R29">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="S29">
-        <v>0.8245320281641766</v>
+        <v>0.8244310863031344</v>
       </c>
       <c r="T29">
-        <v>0.0024408103490358</v>
+        <v>0.0019526482792287</v>
       </c>
       <c r="U29">
-        <v>0.9997917642771618</v>
+        <v>0.9995835285543236</v>
       </c>
       <c r="V29">
-        <v>11.72138149865858</v>
+        <v>4.68855259946343</v>
       </c>
       <c r="W29">
-        <v>0.997766960375182</v>
+        <v>0.9984631831261026</v>
       </c>
       <c r="X29">
-        <v>0.4304618966267685</v>
+        <v>0.2658613472774175</v>
       </c>
       <c r="Y29">
-        <v>0.892116841909203</v>
+        <v>0.7341386527225824</v>
       </c>
       <c r="Z29">
-        <v>0.8195935565819397</v>
+        <v>0.8194913115130774</v>
       </c>
       <c r="AA29">
-        <v>0.8293634586696055</v>
+        <v>0.8292638441216477</v>
       </c>
       <c r="AB29">
-        <v>0.0013261336552317</v>
+        <v>0.0009895847529036001</v>
       </c>
       <c r="AC29">
-        <v>0.0044882136180963</v>
+        <v>0.0038493534915045</v>
       </c>
       <c r="AD29">
-        <v>0.9994646215882148</v>
+        <v>0.9991782985407024</v>
       </c>
       <c r="AE29">
-        <v>0.9999190227990148</v>
+        <v>0.9997889576815828</v>
       </c>
       <c r="AF29">
-        <v>3.677800100424876</v>
+        <v>1.76062992227045</v>
       </c>
       <c r="AG29">
-        <v>37.35678407894533</v>
+        <v>12.48560256751024</v>
       </c>
       <c r="AH29">
-        <v>0.9962431192128968</v>
+        <v>0.997081364548848</v>
       </c>
       <c r="AI29">
-        <v>0.9992931323860756</v>
+        <v>0.9998469167151592</v>
       </c>
       <c r="AJ29">
         <v>1</v>
@@ -16248,109 +16144,109 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30">
-        <v>1.097274805398675</v>
+        <v>1.096773823244232</v>
       </c>
       <c r="F30">
-        <v>1.02395667107263</v>
+        <v>1.012480452341113</v>
       </c>
       <c r="G30">
-        <v>1.128280371596351</v>
+        <v>1.14350220887923</v>
       </c>
       <c r="H30">
-        <v>0.0009610999982017</v>
+        <v>0.0005408281397089</v>
       </c>
       <c r="I30">
-        <v>0.0069717888758444</v>
+        <v>0.0064434148257797</v>
       </c>
       <c r="J30">
-        <v>0.4392226991782008</v>
+        <v>0.5992375787975163</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M30">
         <v>23306</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>19207</v>
+        <v>19205</v>
       </c>
       <c r="Q30">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="R30">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="S30">
-        <v>0.8245470936721903</v>
+        <v>0.8246028338342636</v>
       </c>
       <c r="T30">
-        <v>0.0024408103490358</v>
+        <v>0.002928972418843</v>
       </c>
       <c r="U30">
-        <v>0.9998958821385808</v>
+        <v>0.9997917642771618</v>
       </c>
       <c r="V30">
-        <v>23.44276299730465</v>
+        <v>14.06565779839029</v>
       </c>
       <c r="W30">
-        <v>0.9976630641956252</v>
+        <v>0.9972786966314212</v>
       </c>
       <c r="X30">
-        <v>0.5190777942769059</v>
+        <v>0.485129064987007</v>
       </c>
       <c r="Y30">
-        <v>0.958613275997822</v>
+        <v>0.9052291176155008</v>
       </c>
       <c r="Z30">
-        <v>0.8196089989591487</v>
+        <v>0.8196649120390536</v>
       </c>
       <c r="AA30">
-        <v>0.8293781515296438</v>
+        <v>0.8294336820052186</v>
       </c>
       <c r="AB30">
-        <v>0.0013261336552317</v>
+        <v>0.0016760531941873</v>
       </c>
       <c r="AC30">
-        <v>0.0044882136180963</v>
+        <v>0.0051137031080607</v>
       </c>
       <c r="AD30">
-        <v>0.9996203897575818</v>
+        <v>0.9994646215882148</v>
       </c>
       <c r="AE30">
-        <v>0.9999714487121196</v>
+        <v>0.9999190227990148</v>
       </c>
       <c r="AF30">
-        <v>5.138062867100002</v>
+        <v>4.538490654515425</v>
       </c>
       <c r="AG30">
-        <v>106.9592083948124</v>
+        <v>43.59218611689337</v>
       </c>
       <c r="AH30">
-        <v>0.9961461849835054</v>
+        <v>0.9956124283895768</v>
       </c>
       <c r="AI30">
-        <v>0.999182253231924</v>
+        <v>0.9989477535586764</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -16358,109 +16254,109 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>1.095636692101154</v>
+        <v>1.09028857771107</v>
       </c>
       <c r="F31">
-        <v>1.025176399344871</v>
+        <v>1.018928908323873</v>
       </c>
       <c r="G31">
-        <v>1.141899343051222</v>
+        <v>1.114002644089713</v>
       </c>
       <c r="H31">
-        <v>0.0002373958105616</v>
+        <v>0.0005105739801025</v>
       </c>
       <c r="I31">
-        <v>0.0020469789703147</v>
+        <v>0.0062166590104789</v>
       </c>
       <c r="J31">
-        <v>0.1084898854266821</v>
+        <v>0.5657159699535865</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>23306</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>19205</v>
+        <v>19207</v>
       </c>
       <c r="Q31">
-        <v>4085</v>
+        <v>4091</v>
       </c>
       <c r="R31">
         <v>0.75</v>
       </c>
       <c r="S31">
-        <v>0.8246028338342636</v>
+        <v>0.824405528371534</v>
       </c>
       <c r="T31">
-        <v>0.002928972418843</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U31">
-        <v>0.9997917642771618</v>
+        <v>0.9998958821385808</v>
       </c>
       <c r="V31">
-        <v>14.06565779839029</v>
+        <v>14.06565779838279</v>
       </c>
       <c r="W31">
-        <v>0.9972786966314212</v>
+        <v>0.998639489998606</v>
       </c>
       <c r="X31">
-        <v>0.485129064987007</v>
+        <v>0.3589167857050852</v>
       </c>
       <c r="Y31">
-        <v>0.9052291176155008</v>
+        <v>0.941436390491302</v>
       </c>
       <c r="Z31">
-        <v>0.8196649120390536</v>
+        <v>0.8194663354388473</v>
       </c>
       <c r="AA31">
-        <v>0.8294336820052186</v>
+        <v>0.8292377495052702</v>
       </c>
       <c r="AB31">
-        <v>0.0016760531941873</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC31">
-        <v>0.0051137031080607</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD31">
-        <v>0.9994646215882148</v>
+        <v>0.9996203897575818</v>
       </c>
       <c r="AE31">
-        <v>0.9999190227990148</v>
+        <v>0.9999714487121196</v>
       </c>
       <c r="AF31">
-        <v>4.538490654515425</v>
+        <v>2.839717834592593</v>
       </c>
       <c r="AG31">
-        <v>43.59218611689337</v>
+        <v>69.66985483245752</v>
       </c>
       <c r="AH31">
-        <v>0.9956124283895768</v>
+        <v>0.9974602170611904</v>
       </c>
       <c r="AI31">
-        <v>0.9989477535586764</v>
+        <v>0.999820157161713</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -16468,219 +16364,216 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32">
-        <v>1.08984917396415</v>
+        <v>1.068728840079035</v>
       </c>
       <c r="F32">
-        <v>1.034711663997639</v>
+        <v>1.028769831756438</v>
       </c>
       <c r="G32">
-        <v>1.139905254092672</v>
+        <v>1.107785852753744</v>
       </c>
       <c r="H32">
-        <v>0.0004629833745717</v>
+        <v>0.000390061303231</v>
       </c>
       <c r="I32">
-        <v>0.0036479896927463</v>
+        <v>0.0051450943330953</v>
       </c>
       <c r="J32">
-        <v>0.2115834021792906</v>
+        <v>0.4321879239800072</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="M32">
         <v>23306</v>
       </c>
       <c r="N32">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="O32">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="P32">
-        <v>19201</v>
+        <v>19015</v>
       </c>
       <c r="Q32">
-        <v>4089</v>
+        <v>4013</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="S32">
-        <v>0.8244310863031344</v>
+        <v>0.8257338891783915</v>
       </c>
       <c r="T32">
-        <v>0.0019526482792287</v>
+        <v>0.0205028069319013</v>
       </c>
       <c r="U32">
-        <v>0.9995835285543236</v>
+        <v>0.9899005674423448</v>
       </c>
       <c r="V32">
-        <v>4.68855259946343</v>
+        <v>2.030094939973689</v>
       </c>
       <c r="W32">
-        <v>0.9984631831261026</v>
+        <v>0.9894904854927744</v>
       </c>
       <c r="X32">
-        <v>0.2658613472774175</v>
+        <v>0.2509688357584906</v>
       </c>
       <c r="Y32">
-        <v>0.7341386527225824</v>
+        <v>0.358787436256921</v>
       </c>
       <c r="Z32">
-        <v>0.8194913115130774</v>
+        <v>0.8207799637885783</v>
       </c>
       <c r="AA32">
-        <v>0.8292638441216477</v>
+        <v>0.8305791454589891</v>
       </c>
       <c r="AB32">
-        <v>0.0009895847529036001</v>
+        <v>0.0165904398769455</v>
       </c>
       <c r="AC32">
-        <v>0.0038493534915045</v>
+        <v>0.0253140414664212</v>
       </c>
       <c r="AD32">
-        <v>0.9991782985407024</v>
+        <v>0.9883852965544152</v>
       </c>
       <c r="AE32">
-        <v>0.9997889576815828</v>
+        <v>0.9912199099979546</v>
       </c>
       <c r="AF32">
-        <v>1.76062992227045</v>
+        <v>1.575081375280271</v>
       </c>
       <c r="AG32">
-        <v>12.48560256751024</v>
+        <v>2.61655399523306</v>
       </c>
       <c r="AH32">
-        <v>0.997081364548848</v>
+        <v>0.9848951192226242</v>
       </c>
       <c r="AI32">
-        <v>0.9998469167151592</v>
+        <v>0.9941072930217396</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>1.068728840079035</v>
+        <v>1.048756494704007</v>
       </c>
       <c r="F33">
-        <v>1.028915522609983</v>
+        <v>1.000012418729275</v>
       </c>
       <c r="G33">
-        <v>1.109909919905747</v>
+        <v>1.061572888323341</v>
       </c>
       <c r="H33">
-        <v>0.0003011180434137</v>
+        <v>0.0001712154717836</v>
       </c>
       <c r="I33">
-        <v>0.0040687657573466</v>
+        <v>0.0026719259540314</v>
       </c>
       <c r="J33">
-        <v>0.3336387921024226</v>
+        <v>0.1897067427362352</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="M33">
         <v>23306</v>
       </c>
       <c r="N33">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>19015</v>
+        <v>19209</v>
       </c>
       <c r="Q33">
-        <v>4013</v>
+        <v>4091</v>
       </c>
       <c r="R33">
-        <v>0.302158273381295</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0.8257338891783915</v>
+        <v>0.8244206008583691</v>
       </c>
       <c r="T33">
-        <v>0.0205028069319013</v>
+        <v>0.0014644862094215</v>
       </c>
       <c r="U33">
-        <v>0.9899005674423448</v>
-      </c>
-      <c r="V33">
-        <v>2.030094939973689</v>
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>78</v>
       </c>
       <c r="W33">
-        <v>0.9894904854927744</v>
+        <v>0.9985355137905784</v>
       </c>
       <c r="X33">
-        <v>0.2509688357584906</v>
+        <v>0.5005264873047524</v>
       </c>
       <c r="Y33">
-        <v>0.358787436256921</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8207799637885783</v>
+        <v>0.8194817847126817</v>
       </c>
       <c r="AA33">
-        <v>0.8305791454589891</v>
+        <v>0.8292524494169916</v>
       </c>
       <c r="AB33">
-        <v>0.0165904398769455</v>
+        <v>0.0006712072339467</v>
       </c>
       <c r="AC33">
-        <v>0.0253140414664212</v>
+        <v>0.0031923219815414</v>
       </c>
       <c r="AD33">
-        <v>0.9883852965544152</v>
+        <v>0.999800032552174</v>
       </c>
       <c r="AE33">
-        <v>0.9912199099979546</v>
-      </c>
-      <c r="AF33">
-        <v>1.575081375280271</v>
-      </c>
-      <c r="AG33">
-        <v>2.61655399523306</v>
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>78</v>
       </c>
       <c r="AH33">
-        <v>0.9848951192226242</v>
+        <v>0.9973651862219296</v>
       </c>
       <c r="AI33">
-        <v>0.9941072930217396</v>
+        <v>0.9997072146441954</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -16691,31 +16584,31 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34">
-        <v>1.048756494704007</v>
+        <v>1.04824303586909</v>
       </c>
       <c r="F34">
-        <v>1.000009429121174</v>
+        <v>1.000010267148571</v>
       </c>
       <c r="G34">
-        <v>1.06310728614988</v>
+        <v>1.061412900756495</v>
       </c>
       <c r="H34">
-        <v>0.0002960470366133</v>
+        <v>0.0001558845238922</v>
       </c>
       <c r="I34">
-        <v>0.0041002514570944</v>
+        <v>0.0024674293210378</v>
       </c>
       <c r="J34">
-        <v>0.3280201165675576</v>
+        <v>0.1727200524726489</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -16751,7 +16644,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W34">
         <v>0.9985355137905784</v>
@@ -16781,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="AG34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH34">
         <v>0.9973651862219296</v>
@@ -16795,34 +16688,34 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>1.04824303586909</v>
+        <v>1.042525643668658</v>
       </c>
       <c r="F35">
-        <v>1.000015053937447</v>
+        <v>1.000018649222702</v>
       </c>
       <c r="G35">
-        <v>1.061311037143754</v>
+        <v>1.056257131098322</v>
       </c>
       <c r="H35">
-        <v>6.82570141424707E-05</v>
+        <v>0.0005750593878311</v>
       </c>
       <c r="I35">
-        <v>0.0011458904798463</v>
+        <v>0.0066371437678844</v>
       </c>
       <c r="J35">
-        <v>0.0756287716698575</v>
+        <v>0.6371658017169061</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -16858,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W35">
         <v>0.9985355137905784</v>
@@ -16888,7 +16781,7 @@
         <v>1</v>
       </c>
       <c r="AG35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH35">
         <v>0.9973651862219296</v>
@@ -16897,7 +16790,7 @@
         <v>0.9997072146441954</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -16905,31 +16798,31 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>1.041812399819348</v>
+        <v>1.038116556692796</v>
       </c>
       <c r="F36">
-        <v>1.00003113008371</v>
+        <v>1.000017510843466</v>
       </c>
       <c r="G36">
-        <v>1.054374799483791</v>
+        <v>1.049078583398081</v>
       </c>
       <c r="H36">
-        <v>0.0004036873817013</v>
+        <v>0.000266138980439</v>
       </c>
       <c r="I36">
-        <v>0.0032365812883771</v>
+        <v>0.0034288603526329</v>
       </c>
       <c r="J36">
-        <v>0.1844851334374957</v>
+        <v>0.2948819903264374</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -16965,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W36">
         <v>0.9985355137905784</v>
@@ -16995,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="AG36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH36">
         <v>0.9973651862219296</v>
@@ -17009,108 +16902,215 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E37">
-        <v>1.037429002618232</v>
+        <v>1.037333742465425</v>
       </c>
       <c r="F37">
-        <v>1.000027529622607</v>
+        <v>1.013663080398968</v>
       </c>
       <c r="G37">
-        <v>1.048451890115432</v>
+        <v>1.049768755444215</v>
       </c>
       <c r="H37">
-        <v>9.062112731034636E-05</v>
+        <v>2.804026234771616E-05</v>
       </c>
       <c r="I37">
-        <v>0.0008627886496005</v>
+        <v>0.0004779786258656</v>
       </c>
       <c r="J37">
-        <v>0.0414138551808282</v>
+        <v>0.0310686106812695</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M37">
         <v>23306</v>
       </c>
       <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>19208</v>
+      </c>
+      <c r="Q37">
+        <v>4090</v>
+      </c>
+      <c r="R37">
+        <v>0.875</v>
+      </c>
+      <c r="S37">
+        <v>0.8244484505107734</v>
+      </c>
+      <c r="T37">
+        <v>0.0017085672443251</v>
+      </c>
+      <c r="U37">
+        <v>0.9999479410692904</v>
+      </c>
+      <c r="V37">
+        <v>32.81986819622651</v>
+      </c>
+      <c r="W37">
+        <v>0.9983434054458432</v>
+      </c>
+      <c r="X37">
+        <v>0.4681786160314102</v>
+      </c>
+      <c r="Y37">
+        <v>0.9823511482631704</v>
+      </c>
+      <c r="Z37">
+        <v>0.8195097203643582</v>
+      </c>
+      <c r="AA37">
+        <v>0.829280194704785</v>
+      </c>
+      <c r="AB37">
+        <v>0.0008277137196945</v>
+      </c>
+      <c r="AC37">
+        <v>0.0035235200102536</v>
+      </c>
+      <c r="AD37">
+        <v>0.9997051244390388</v>
+      </c>
+      <c r="AE37">
+        <v>0.9999908110718992</v>
+      </c>
+      <c r="AF37">
+        <v>4.038636395250149</v>
+      </c>
+      <c r="AG37">
+        <v>266.7097611670394</v>
+      </c>
+      <c r="AH37">
+        <v>0.9970753644057836</v>
+      </c>
+      <c r="AI37">
+        <v>0.9996130591303796</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38">
+        <v>1.036395069539834</v>
+      </c>
+      <c r="F38">
+        <v>1.000018262558198</v>
+      </c>
+      <c r="G38">
+        <v>1.046731637289407</v>
+      </c>
+      <c r="H38">
+        <v>0.0001008935713481</v>
+      </c>
+      <c r="I38">
+        <v>0.0015313709185438</v>
+      </c>
+      <c r="J38">
+        <v>0.1117900770537041</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>6</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>19209</v>
-      </c>
-      <c r="Q37">
-        <v>4091</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <v>0.8244206008583691</v>
-      </c>
-      <c r="T37">
-        <v>0.0014644862094215</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37" t="s">
-        <v>80</v>
-      </c>
-      <c r="W37">
-        <v>0.9985355137905784</v>
-      </c>
-      <c r="X37">
-        <v>0.5005264873047524</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>0.8194817847126817</v>
-      </c>
-      <c r="AA37">
-        <v>0.8292524494169916</v>
-      </c>
-      <c r="AB37">
-        <v>0.0006712072339467</v>
-      </c>
-      <c r="AC37">
-        <v>0.0031923219815414</v>
-      </c>
-      <c r="AD37">
-        <v>0.999800032552174</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH37">
-        <v>0.9973651862219296</v>
-      </c>
-      <c r="AI37">
-        <v>0.9997072146441954</v>
-      </c>
-      <c r="AJ37">
+      <c r="M38">
+        <v>23306</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>19208</v>
+      </c>
+      <c r="Q38">
+        <v>4092</v>
+      </c>
+      <c r="R38">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S38">
+        <v>0.8243776824034335</v>
+      </c>
+      <c r="T38">
+        <v>0.0012204051745179</v>
+      </c>
+      <c r="U38">
+        <v>0.9999479410692904</v>
+      </c>
+      <c r="V38">
+        <v>23.44276299730465</v>
+      </c>
+      <c r="W38">
+        <v>0.998831592930169</v>
+      </c>
+      <c r="X38">
+        <v>0.3552484667432382</v>
+      </c>
+      <c r="Y38">
+        <v>0.9784358581265966</v>
+      </c>
+      <c r="Z38">
+        <v>0.8194384036003803</v>
+      </c>
+      <c r="AA38">
+        <v>0.8292100077704452</v>
+      </c>
+      <c r="AB38">
+        <v>0.0005212695944352001</v>
+      </c>
+      <c r="AC38">
+        <v>0.0028545551065929</v>
+      </c>
+      <c r="AD38">
+        <v>0.9997051244390388</v>
+      </c>
+      <c r="AE38">
+        <v>0.9999908110718992</v>
+      </c>
+      <c r="AF38">
+        <v>2.739244912433137</v>
+      </c>
+      <c r="AG38">
+        <v>200.625776268996</v>
+      </c>
+      <c r="AH38">
+        <v>0.997758152205485</v>
+      </c>
+      <c r="AI38">
+        <v>0.9999061885188716</v>
+      </c>
+      <c r="AJ38">
         <v>1</v>
       </c>
     </row>
